--- a/compared/corpus_patterns.xlsx
+++ b/compared/corpus_patterns.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,24 +466,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATATATATAT</t>
+          <t>ATTAATATAT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0101010101</t>
+          <t>0110010101</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Albert Mestres, Carles Rebassa, Carles Riba, Francesc Garriga, Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Jaume Bofill, Jaume Coll Mariné, Joan Alcover, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Josep Carner, Josep Piera, J. V. Foix, Lluís Calvo, Maria Josep Escrivà, Maria Mercè Marçal, Marià Manent, Miquel Costa, Miquel Desclot, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Màrius Torres, Narcís Comadira, Nicolau Dols, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Armand Obiols, Llorenç Moyà, Bernat Cifre, Gabriel de la S.T. Sampol, Blai Bonet, Guillem Cabrer, Joan-Manuel Pérez, Joan Salvat-Papasseit, Àngel Terrón, Albert Balasch, Anna Gual, Pere Gimferrer, Miquel Bezares, Manuel Forcano, Miquel-Àngel Llauger, Vicenç Llorca, Miquel-Àngel Adrover</t>
+          <t>Miquel dels Sants Oliver, Bernat Cifre, Blai Bonet, Carles Rebassa, Xulio Ricardo Trigo, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Helena Rufat, Isabel-Clara Simó, Joan Valls, Jaume Agelet, Jaume Bofill, Jaume C. Pons Alorda, Jaume Coll Mariné, Jaume Pérez Montaner, Josep Carner, Joan Brossa, Joan Ferraté, Joan Francesc Mira, Joan Fuster, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Salvat-Papasseit, Bartomeu Rosselló-Pòrcel, Joan Vinyoli, Jordi Gebellí i Puig, Jordi Llavina, Jordi Sarsanedas i Vives, Josep Borrell, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Josep Maria López-Picó, Albert Balasch, Clementina Arderiu, Ponç Pons, Alfred Badia, Andreu Gomila, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, Arnau Pons, August Bover Font, Bartomeu Fiol, Bernat Artola, Biel Mesquida, Carles Riba, Bonaventura Ubach, Camil Geis, Carles Camps, Carles Cardó, Carles Fages de Climent, Carles Miralles, Enric Sòria, Carles Riera, Carles Salvador, Josep Maria Llompart, Daniel Martínez, David Jou, Ester Xargay, Feliu Formosa, Josep Vallverdú, Francesc Almela, Francesc Parcerisas, Josep Maria Sala-Valldaura, Josep Sebastià Pons, J. V. Foix, Llorenç Moyà, Llorenç Riber, Lluís Alpera, Lluís Calvo, Lluís Freixas, Maria Rosa Font i Massot, Manuel Forcano, Maria Àngels Anglada, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Màrius Torres, Miquel Costa i Llobera, Miquel de Palol, Miquel Creus, Miquel Dolç Dolç, Miquel Forteza, Miquel Lladó, Miquel Martí i Pol, Miquel Àngel Adrover, Miquel Àngel Llauger, Narcís Comadira, Nicolau Dols, Oriol Izquierdo, Pau Sais, Pere Gimferrer, Pere Prat, Pere Rovira, Pere Suau, Perejaume, Rafael Catardi, Ramon Miquel, Ramon Solsona i Sancho, Rosa Leveroni, Verdaguer i Santaló, Jacint, Sebastià Alzamora, Sebastià Sánchez-Juan, Segimon Serrallonga, Tomàs Garcés, Txema Martínez, Vicenç Llorca, Vicent Andrés Estellés, Xavier Lloveras, Biel Mercadal, Albert Mestres, Joan Alcover, Gabriel de la S.T. Sampol, Damià Rotger, David Vidal, Bonaventura Gassol, Vicent Alonso, Joan Teixidor, Francesc Florit, Frederic Erdozaín, Guillem Benejam, Joan Francesc López, Joan Timoner, Magí Morera, Àlex Susanna</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>9033</v>
+        <v>886</v>
       </c>
       <c r="F2" t="n">
-        <v>51</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
@@ -492,24 +492,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATAATAATAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0100100101</t>
+          <t>0101001001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Albert Mestres, Carles Riba, Francesc Garriga, Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Jaume Bofill, Jaume Coll Mariné, Joan Alcover, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Josep Carner, Josep Piera, J. V. Foix, Maria Josep Escrivà, Maria Mercè Marçal, Marià Manent, Miquel Costa, Miquel Desclot, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Màrius Torres, Narcís Comadira, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Armand Obiols, Llorenç Moyà, Gabriel de la S.T. Sampol, Blai Bonet, Guillem Cabrer, Joan-Manuel Pérez, Joan Salvat-Papasseit, Àngel Terrón, Albert Balasch, Anna Gual, Miquel Bezares, Manuel Forcano, Miquel-Àngel Llauger, Vicenç Llorca, Miquel-Àngel Adrover</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Carles Rebassa, Xulio Ricardo Trigo, Joan Prat, Enric Casasses, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Guillem Cabrer, Helena Rufat, Isabel-Clara Simó, Joan Valls, Jaume Agelet, Jaume Bofill, Jaume C. Pons Alorda, Jaume Coll Mariné, Jaume Pérez Montaner, Josep Carner, Joan Amade, Joan Brossa, Joan Ferraté, Joan Francesc Mira, Joan Fuster, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Salvat-Papasseit, Bartomeu Rosselló-Pòrcel, Joan Vinyoli, Joan-Elies Adell, Joan-Lluís Lluís, Joan Manuel Pérez i Pinya, Jordi Cornudella, Jordi Gebellí i Puig, Jordi Llavina, Jordi Pere Cerdà, Jordi Sarsanedas i Vives, Josep Borrell, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Josep Maria López-Picó, Albert Balasch, Clementina Arderiu, Ponç Pons, Alfred Badia, Andreu Gomila, Àngel Fabregat, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, Arnau Pons, August Bover Font, Bartomeu Fiol, Bernat Artola, Biel Mesquida, Carles Riba, Bonaventura Ubach, Carles Camps, Carles Cardó, Carles Duarte, Carles Fages de Climent, Carles Grandó, Carles Miralles, Enric Sòria, Carles Riera, Carles Salvador, Àngel Ruiz i Pablo, Carme Guasch, Josep Maria Llompart, Josep Romeu i Figueras, Daniel Martínez, David Jou, Garriga i Barata, Francesc, Ester Xargay, Feliu Formosa, Josep Vallverdú, Francesc Parcerisas, Francesc Vallverdú, Frederic Clascar, Antoni Moll, Josep Maria Sala-Valldaura, Josep Sebastià Pons, J. V. Foix, Llorenç Moyà, Llorenç Riber, Lluís Alpera, Lluís Calvo, Lluís Freixas, Maria Rosa Font i Massot, Manuel Forcano, Maria Àngels Anglada, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Maria Josep Escrivà, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Màrius Torres, Marta Pessarrodona, Miquel Bezares, Miquel Costa i Llobera, Miquel de Palol, Miquel Creus, Miquel Dolç Dolç, Miquel Forteza, Miquel Lladó, Miquel Martí i Pol, Miquel Àngel Adrover, Miquel Àngel Llauger, Arcadi Gomila, Narcís Comadira, Olga Xirinacs i Díaz, Oriol Izquierdo, Pau Sais, Pere Gimferrer, Pere Rovira, Pere Suau, Perejaume, Rafael Catardi, Ramir Augé, Ramon Solsona i Sancho, Ricard Permanyer, Rosa Leveroni, Gustau Juan, Verdaguer i Santaló, Jacint, Salvador Perarnau, Salvador Sunyer, Sebastià Alzamora, Sebastià Sánchez-Juan, Segimon Serrallonga, Susanna Rafart, Tomàs Garcés, Txema Martínez, Vicenç Llorca, Vicent Andrés Estellés, Francesc Xavier Casp, Xavier Lloveras, Anna Gual, Biel Mercadal, Albert Mestres, Joan Alcover, Gabriel de la S.T. Sampol, Damià Rotger, David Vidal, Bonaventura Gassol, Vicent Alonso, Joan Teixidor, Francesc Florit, Guillem Benejam, Joan Francesc López, Joan Timoner, Pere Gomila, Piera i Rubió, Josep, Magí Morera, Agustí Bartra, Àlex Susanna</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>474</v>
+        <v>3125</v>
       </c>
       <c r="F3" t="n">
-        <v>45</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4">
@@ -518,24 +518,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATAATATATT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0100101011</t>
+          <t>1001010101</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Albert Mestres, Gerard Vergés, Jacint Verdaguer, Jaume Bofill, Jaume Coll Mariné, Joan Alcover, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Josep Carner, Marià Manent, Miquel Costa, Miquel Lladó, Màrius Sampere, Narcís Comadira, Salvador Espriu, Salvador Oliva, Vicent Andrés Estellés, Llorenç Moyà, Blai Bonet, Joan-Manuel Pérez, Joan Salvat-Papasseit, Miquel Bezares, Manuel Forcano, Miquel-Àngel Llauger</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Carles Rebassa, Xulio Ricardo Trigo, Joan Prat, Enric Casasses, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Guillem Cabrer, Helena Rufat, Isabel-Clara Simó, Joan Valls, Jaume Agelet, Jaume Bofill, Jaume C. Pons Alorda, Jaume Coll Mariné, Jaume Pérez Montaner, Josep Carner, Joan Amade, Joan Brossa, Joan Ferraté, Joan Francesc Mira, Joan Fuster, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Salvat-Papasseit, Bartomeu Rosselló-Pòrcel, Joan Vinyoli, Joan-Elies Adell, Joan-Lluís Lluís, Joan Manuel Pérez i Pinya, Joaquim Folguera, Jordi Cornudella, Jordi Gebellí i Puig, Jordi Llavina, Jordi Pere Cerdà, Jordi Sarsanedas i Vives, Josep Borrell, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Josep Maria López-Picó, Albert Balasch, Clementina Arderiu, Ponç Pons, Alfred Badia, Andreu Gomila, Àngel Fabregat, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, Arnau Pons, August Bover Font, Bartomeu Fiol, Bernat Artola, Biel Mesquida, Carles Riba, Bonaventura Ubach, Camil Geis, Carles Camps, Carles Cardó, Carles Duarte, Carles Fages de Climent, Carles Grandó, Carles Miralles, Enric Sòria, Carles Riera, Carles Salvador, Àngel Ruiz i Pablo, Carme Guasch, Josep Maria Llompart, Josep Romeu i Figueras, Daniel Martínez, Garriga i Barata, Francesc, Ester Xargay, Feliu Formosa, Josep Vallverdú, Francesc Almela, Francesc Parcerisas, Frederic Clascar, Antoni Moll, Josep Maria Sala-Valldaura, Josep Sebastià Pons, J. V. Foix, Llorenç Moyà, Llorenç Riber, Lluís Alpera, Lluís Calvo, Lluís Freixas, Maria Rosa Font i Massot, Manuel Forcano, Maria Àngels Anglada, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Maria Josep Escrivà, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Màrius Torres, Marta Pessarrodona, Miquel Bezares, Miquel Costa i Llobera, Miquel de Palol, Miquel Creus, Miquel Dolç Dolç, Miquel Forteza, Miquel Lladó, Miquel Martí i Pol, Miquel Àngel Adrover, Miquel Àngel Llauger, Arcadi Gomila, Narcís Comadira, Nicolau Dols, Olga Xirinacs i Díaz, Oriol Izquierdo, Pau Sais, Pere Gimferrer, Pere Prat, Pere Rovira, Pere Suau, Perejaume, Rafael Catardi, Ramir Augé, Ramon Miquel, Ramon Solsona i Sancho, Ricard Permanyer, Rosa Leveroni, Gustau Juan, Verdaguer i Santaló, Jacint, Salvador Perarnau, Sebastià Alzamora, Sebastià Sánchez-Juan, Segimon Serrallonga, Susanna Rafart, Tomàs Garcés, Txema Martínez, Vicenç Llorca, Vicent Andrés Estellés, Francesc Xavier Casp, Xavier Lloveras, Anna Gual, Biel Mercadal, Albert Mestres, Joan Alcover, Gabriel de la S.T. Sampol, Damià Rotger, David Vidal, Bonaventura Gassol, Vicent Alonso, Joan Teixidor, Francesc Florit, Guillem Benejam, Joan Francesc López, Joan Timoner, Pere Gomila, Piera i Rubió, Josep, Magí Morera, Agustí Bartra, Àlex Susanna</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>5645</v>
       </c>
       <c r="F4" t="n">
-        <v>27</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5">
@@ -544,24 +544,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TATATTATAT</t>
+          <t>ATATAATTAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1010110101</t>
+          <t>0101001101</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Albert Mestres, Gerard Vergés, Joan Margarit, Joan Oliver, Lluís Calvo, Miquel Desclot, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Narcís Comadira, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Llorenç Moyà, Blai Bonet, Joan-Manuel Pérez, Miquel Bezares, Miquel-Àngel Llauger</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Carles Rebassa, Xulio Ricardo Trigo, Joan Prat, Enric Casasses, Joan Margarit, Gabriel Ferrater, Gerard Vergés, Guillem Cabrer, Helena Rufat, Joan Valls, Jaume Bofill, Jaume C. Pons Alorda, Jaume Pérez Montaner, Josep Carner, Joan Amade, Joan Brossa, Joan Francesc Mira, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Salvat-Papasseit, Bartomeu Rosselló-Pòrcel, Joan Vinyoli, Jordi Cornudella, Jordi Gebellí i Puig, Jordi Llavina, Josep Borrell, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Josep Maria López-Picó, Clementina Arderiu, Ponç Pons, Alfred Badia, Andreu Gomila, Àngel Fabregat, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, August Bover Font, Bernat Artola, Carles Riba, Bonaventura Ubach, Camil Geis, Carles Camps, Carles Cardó, Carles Duarte, Carles Fages de Climent, Carles Miralles, Carles Riera, Carles Salvador, Josep Romeu i Figueras, Daniel Martínez, David Jou, Garriga i Barata, Francesc, Ester Xargay, Feliu Formosa, Francesc Almela, Francesc Parcerisas, Josep Sebastià Pons, J. V. Foix, Llorenç Moyà, Llorenç Riber, Lluís Alpera, Lluís Freixas, Maria Rosa Font i Massot, Manuel Forcano, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Maria Josep Escrivà, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Màrius Torres, Marta Pessarrodona, Miquel Bezares, Miquel Costa i Llobera, Miquel de Palol, Miquel Creus, Miquel Dolç Dolç, Miquel Forteza, Miquel Lladó, Miquel Martí i Pol, Arcadi Gomila, Narcís Comadira, Nicolau Dols, Pau Sais, Pere Gimferrer, Pere Rovira, Pere Suau, Perejaume, Rafael Catardi, Ramon Miquel, Ramon Solsona i Sancho, Rosa Leveroni, Gustau Juan, Verdaguer i Santaló, Jacint, Salvador Perarnau, Sebastià Alzamora, Sebastià Sánchez-Juan, Susanna Rafart, Tomàs Garcés, Txema Martínez, Vicent Andrés Estellés, Francesc Xavier Casp, Xavier Lloveras, Anna Gual, Biel Mercadal, Albert Mestres, Joan Alcover, Damià Rotger, David Vidal, Bonaventura Gassol, Vicent Alonso, Joan Teixidor, Francesc Florit, Guillem Benejam, Joan Francesc López, Joan Timoner, Pere Gomila, Magí Morera, Agustí Bartra</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>34</v>
+        <v>633</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
@@ -570,24 +570,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>ATAATATAAT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0101001001</t>
+          <t>0100101001</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Albert Mestres, Carles Rebassa, Carles Riba, Francesc Garriga, Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Jaume Bofill, Jaume Coll Mariné, Joan Alcover, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Josep Carner, Josep Piera, J. V. Foix, Lluís Calvo, Maria Josep Escrivà, Maria Mercè Marçal, Marià Manent, Miquel Costa, Miquel Desclot, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Màrius Torres, Narcís Comadira, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Armand Obiols, Llorenç Moyà, Gabriel de la S.T. Sampol, Blai Bonet, Guillem Cabrer, Joan-Manuel Pérez, Joan Salvat-Papasseit, Àngel Terrón, Albert Balasch, Anna Gual, Pere Gimferrer, Miquel Bezares, Manuel Forcano, Miquel-Àngel Llauger, Vicenç Llorca, Miquel-Àngel Adrover</t>
+          <t>Miquel dels Sants Oliver, Bernat Cifre, Blai Bonet, Xulio Ricardo Trigo, Joan Prat, Enric Casasses, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Helena Rufat, Isabel-Clara Simó, Joan Valls, Jaume Bofill, Jaume C. Pons Alorda, Josep Carner, Joan Amade, Joan Brossa, Joan Ferraté, Joan Francesc Mira, Joan Fuster, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Salvat-Papasseit, Bartomeu Rosselló-Pòrcel, Joan Vinyoli, Joan-Elies Adell, Joan-Lluís Lluís, Joan Manuel Pérez i Pinya, Jordi Cornudella, Jordi Llavina, Jordi Pere Cerdà, Jordi Sarsanedas i Vives, Josep Borrell, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Albert Balasch, Clementina Arderiu, Ponç Pons, Alfred Badia, Andreu Gomila, Àngel Fabregat, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, Arnau Pons, August Bover Font, Bartomeu Fiol, Bernat Artola, Biel Mesquida, Carles Riba, Bonaventura Ubach, Camil Geis, Carles Camps, Carles Cardó, Carles Duarte, Carles Grandó, Carles Miralles, Enric Sòria, Carles Salvador, Carme Guasch, Josep Maria Llompart, Josep Romeu i Figueras, Daniel Martínez, David Jou, Garriga i Barata, Francesc, Ester Xargay, Feliu Formosa, Josep Vallverdú, Francesc Almela, Francesc Parcerisas, Frederic Clascar, Antoni Moll, Josep Maria Sala-Valldaura, Josep Sebastià Pons, J. V. Foix, Llorenç Moyà, Lluís Alpera, Lluís Freixas, Maria Rosa Font i Massot, Manuel Forcano, Maria Àngels Anglada, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Maria Josep Escrivà, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Màrius Torres, Marta Pessarrodona, Miquel Bezares, Miquel Costa i Llobera, Miquel de Palol, Miquel Creus, Miquel Dolç Dolç, Miquel Lladó, Miquel Martí i Pol, Miquel Àngel Llauger, Arcadi Gomila, Narcís Comadira, Olga Xirinacs i Díaz, Oriol Izquierdo, Pau Sais, Pere Gimferrer, Pere Rovira, Pere Suau, Perejaume, Rafael Catardi, Ramir Augé, Ramon Miquel, Ramon Solsona i Sancho, Ricard Permanyer, Gustau Juan, Verdaguer i Santaló, Jacint, Salvador Sunyer, Sebastià Alzamora, Tomàs Garcés, Txema Martínez, Vicenç Llorca, Vicent Andrés Estellés, Francesc Xavier Casp, Xavier Lloveras, Anna Gual, Biel Mercadal, Albert Mestres, Joan Alcover, Damià Rotger, David Vidal, Vicent Alonso, Joan Teixidor, Francesc Florit, Guillem Benejam, Joan Francesc López, Joan Timoner, Magí Morera, Agustí Bartra, Àlex Susanna</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1301</v>
+        <v>1309</v>
       </c>
       <c r="F6" t="n">
-        <v>49</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7">
@@ -596,24 +596,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TAATAATAAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1001001001</t>
+          <t>0010010101</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Albert Mestres, Carles Rebassa, Carles Riba, Gabriel Ferrater, Gerard Vergés, Jaume Bofill, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Josep Carner, Josep Piera, J. V. Foix, Lluís Calvo, Maria Josep Escrivà, Maria Mercè Marçal, Marià Manent, Miquel Costa, Miquel Desclot, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Màrius Torres, Narcís Comadira, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Armand Obiols, Llorenç Moyà, Blai Bonet, Joan-Manuel Pérez, Joan Salvat-Papasseit, Àngel Terrón, Albert Balasch, Miquel Bezares, Manuel Forcano, Vicenç Llorca</t>
+          <t>Miquel dels Sants Oliver, Bernat Cifre, Blai Bonet, Carles Rebassa, Xulio Ricardo Trigo, Joan Prat, Enric Casasses, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Guillem Cabrer, Helena Rufat, Isabel-Clara Simó, Joan Valls, Jaume Agelet, Jaume Bofill, Jaume C. Pons Alorda, Jaume Coll Mariné, Jaume Pérez Montaner, Josep Carner, Joan Amade, Joan Brossa, Joan Ferraté, Joan Francesc Mira, Joan Fuster, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Salvat-Papasseit, Bartomeu Rosselló-Pòrcel, Joan Vinyoli, Joan-Elies Adell, Joan-Lluís Lluís, Joan Manuel Pérez i Pinya, Joaquim Folguera, Jordi Cornudella, Jordi Gebellí i Puig, Jordi Llavina, Jordi Pere Cerdà, Jordi Sarsanedas i Vives, Josep Borrell, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Josep Maria López-Picó, Albert Balasch, Clementina Arderiu, Ponç Pons, Alfred Badia, Andreu Gomila, Àngel Fabregat, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, Arnau Pons, August Bover Font, Bartomeu Fiol, Bernat Artola, Biel Mesquida, Carles Riba, Bonaventura Ubach, Camil Geis, Carles Camps, Carles Cardó, Carles Duarte, Carles Fages de Climent, Carles Grandó, Carles Miralles, Enric Sòria, Carles Riera, Carles Salvador, Àngel Ruiz i Pablo, Carme Guasch, Josep Maria Llompart, Josep Romeu i Figueras, Daniel Martínez, David Jou, Garriga i Barata, Francesc, Ester Xargay, Feliu Formosa, Josep Vallverdú, Francesc Almela, Francesc Parcerisas, Francesc Vallverdú, Frederic Clascar, Antoni Moll, Josep Maria Sala-Valldaura, Josep Sebastià Pons, J. V. Foix, Llorenç Moyà, Llorenç Riber, Lluís Alpera, Lluís Calvo, Lluís Freixas, Maria Rosa Font i Massot, Manuel Forcano, Maria Àngels Anglada, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Maria Josep Escrivà, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Màrius Torres, Marta Pessarrodona, Miquel Bezares, Miquel Costa i Llobera, Miquel de Palol, Miquel Creus, Miquel Dolç Dolç, Miquel Forteza, Miquel Lladó, Miquel Martí i Pol, Miquel Àngel Adrover, Miquel Àngel Llauger, Arcadi Gomila, Narcís Comadira, Nicolau Dols, Olga Xirinacs i Díaz, Oriol Izquierdo, Pau Sais, Pere Gimferrer, Pere Prat, Pere Rovira, Pere Suau, Perejaume, Rafael Catardi, Ramir Augé, Ramon Miquel, Ramon Solsona i Sancho, Ricard Permanyer, Rosa Leveroni, Gustau Juan, Verdaguer i Santaló, Jacint, Salvador Perarnau, Salvador Sunyer, Sebastià Alzamora, Sebastià Sánchez-Juan, Segimon Serrallonga, Susanna Rafart, Tomàs Garcés, Txema Martínez, Vicenç Llorca, Vicent Andrés Estellés, Francesc Xavier Casp, Xavier Lloveras, Anna Gual, Biel Mercadal, Albert Mestres, Joan Alcover, Gabriel de la S.T. Sampol, Damià Rotger, David Vidal, Bonaventura Gassol, Vicent Alonso, Joan Teixidor, Francesc Florit, Frederic Erdozaín, Guillem Benejam, Joan Francesc López, Joan Timoner, Pere Gomila, Piera i Rubió, Josep, Magí Morera, Agustí Bartra, Àlex Susanna</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>601</v>
+        <v>8014</v>
       </c>
       <c r="F7" t="n">
-        <v>39</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8">
@@ -622,24 +622,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>AAATAATATT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0010010101</t>
+          <t>0001001011</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Albert Mestres, Carles Rebassa, Carles Riba, Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Jaume Bofill, Jaume Coll Mariné, Joan Alcover, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Josep Carner, Josep Piera, J. V. Foix, Lluís Calvo, Maria Josep Escrivà, Maria Mercè Marçal, Marià Manent, Miquel Costa, Miquel Desclot, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Màrius Torres, Narcís Comadira, Nicolau Dols, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Armand Obiols, Llorenç Moyà, Bernat Cifre, Gabriel de la S.T. Sampol, Blai Bonet, Guillem Cabrer, Joan-Manuel Pérez, Joan Salvat-Papasseit, Àngel Terrón, Albert Balasch, Anna Gual, Pere Gimferrer, Miquel Bezares, Manuel Forcano, Miquel-Àngel Llauger, Vicenç Llorca, Miquel-Àngel Adrover</t>
+          <t>Miquel dels Sants Oliver, Joan Margarit, Clementina Arderiu, Arnau Barios, Miquel Martí i Pol, David Vidal</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3576</v>
+        <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -648,24 +648,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AATTAATATT</t>
+          <t>ATATATATAT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0011001011</t>
+          <t>0101010101</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Albert Mestres, Maria Josep Escrivà, Miquel Martí i Pol, Màrius Torres, Armand Obiols, Llorenç Moyà, Blai Bonet, Pere Gimferrer</t>
+          <t>Miquel dels Sants Oliver, Bernat Cifre, Blai Bonet, Carles Rebassa, Xulio Ricardo Trigo, Joan Prat, Enric Casasses, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Guillem Cabrer, Helena Rufat, Isabel-Clara Simó, Joan Valls, Jaume Agelet, Jaume Bofill, Jaume C. Pons Alorda, Jaume Coll Mariné, Jaume Pérez Montaner, Josep Carner, Joan Amade, Joan Brossa, Joan Ferraté, Joan Francesc Mira, Joan Fuster, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Salvat-Papasseit, Bartomeu Rosselló-Pòrcel, Joan Vinyoli, Joan-Elies Adell, Joan-Lluís Lluís, Joan Manuel Pérez i Pinya, Joaquim Folguera, Jordi Cornudella, Jordi Gebellí i Puig, Jordi Llavina, Jordi Pere Cerdà, Jordi Sarsanedas i Vives, Josep Borrell, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Josep Maria López-Picó, Albert Balasch, Clementina Arderiu, Ponç Pons, Alfred Badia, Andreu Gomila, Àngel Fabregat, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, Arnau Pons, August Bover Font, Bartomeu Fiol, Bernat Artola, Biel Mesquida, Carles Riba, Bonaventura Ubach, Camil Geis, Carles Camps, Carles Cardó, Carles Duarte, Carles Fages de Climent, Carles Grandó, Carles Miralles, Enric Sòria, Carles Riera, Carles Salvador, Àngel Ruiz i Pablo, Carme Guasch, Josep Maria Llompart, Josep Romeu i Figueras, Daniel Martínez, David Jou, Garriga i Barata, Francesc, Ester Xargay, Feliu Formosa, Josep Vallverdú, Francesc Almela, Francesc Parcerisas, Francesc Vallverdú, Frederic Clascar, Antoni Moll, Josep Maria Sala-Valldaura, Josep Sebastià Pons, J. V. Foix, Llorenç Moyà, Llorenç Riber, Lluís Alpera, Lluís Calvo, Lluís Freixas, Maria Rosa Font i Massot, Manuel Forcano, Maria Àngels Anglada, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Maria Josep Escrivà, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Màrius Torres, Marta Pessarrodona, Miquel Bezares, Miquel Costa i Llobera, Miquel de Palol, Miquel Creus, Miquel Dolç Dolç, Miquel Forteza, Miquel Lladó, Miquel Martí i Pol, Miquel Àngel Adrover, Miquel Àngel Llauger, Arcadi Gomila, Narcís Comadira, Nicolau Dols, Olga Xirinacs i Díaz, Oriol Izquierdo, Pau Sais, Pere Gimferrer, Pere Prat, Pere Rovira, Pere Suau, Perejaume, Rafael Catardi, Ramir Augé, Ramon Miquel, Ramon Solsona i Sancho, Ricard Permanyer, Rosa Leveroni, Gustau Juan, Verdaguer i Santaló, Jacint, Salvador Perarnau, Salvador Sunyer, Sebastià Alzamora, Sebastià Sánchez-Juan, Segimon Serrallonga, Susanna Rafart, Tomàs Garcés, Txema Martínez, Vicenç Llorca, Vicent Andrés Estellés, Francesc Xavier Casp, Xavier Lloveras, Anna Gual, Biel Mercadal, Albert Mestres, Joan Alcover, Gabriel de la S.T. Sampol, Damià Rotger, David Vidal, Bonaventura Gassol, Vicent Alonso, Joan Teixidor, Francesc Florit, Frederic Erdozaín, Guillem Benejam, Joan Francesc López, Joan Timoner, Pere Gomila, Piera i Rubió, Josep, Magí Morera, Agustí Bartra, Àlex Susanna</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>10</v>
+        <v>20091</v>
       </c>
       <c r="F9" t="n">
-        <v>8</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
@@ -674,24 +674,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>TAATAATTAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1001010101</t>
+          <t>1001001101</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Albert Mestres, Carles Rebassa, Carles Riba, Francesc Garriga, Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Jaume Bofill, Jaume Coll Mariné, Joan Alcover, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Josep Carner, Josep Piera, J. V. Foix, Lluís Calvo, Maria Josep Escrivà, Maria Mercè Marçal, Marià Manent, Miquel Costa, Miquel Desclot, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Màrius Torres, Narcís Comadira, Nicolau Dols, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Armand Obiols, Llorenç Moyà, Gabriel de la S.T. Sampol, Blai Bonet, Guillem Cabrer, Joan-Manuel Pérez, Joan Salvat-Papasseit, Àngel Terrón, Albert Balasch, Anna Gual, Pere Gimferrer, Miquel Bezares, Manuel Forcano, Miquel-Àngel Llauger, Vicenç Llorca, Miquel-Àngel Adrover</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Enric Casasses, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Joan Valls, Jaume Agelet, Jaume Bofill, Josep Carner, Joan Brossa, Joan Francesc Mira, Joan Fuster, Joan Maragall, Joan Oliver, Joan Pons Marquès, Joan Salvat-Papasseit, Bartomeu Rosselló-Pòrcel, Joan Vinyoli, Jordi Cornudella, Jordi Llavina, Josep Borrell, Àngel Terrón, Josep Maria de Sagarra, Alfred Badia, Andreu Gomila, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, Carles Riba, Carles Camps, Carles Cardó, Carles Fages de Climent, David Jou, Feliu Formosa, Frederic Clascar, Josep Sebastià Pons, Llorenç Moyà, Llorenç Riber, Lluís Alpera, Manuel Forcano, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Maria Mercè Marçal, Màrius Sampere, Miquel Bezares, Miquel Costa i Llobera, Miquel de Palol, Miquel Martí i Pol, Narcís Comadira, Oriol Izquierdo, Pau Sais, Pere Gimferrer, Pere Suau, Perejaume, Rafael Catardi, Ramir Augé, Verdaguer i Santaló, Jacint, Sebastià Alzamora, Tomàs Garcés, Txema Martínez, Vicent Andrés Estellés, Xavier Lloveras, Joan Alcover, Gabriel de la S.T. Sampol, Damià Rotger, Vicent Alonso, Joan Teixidor, Francesc Florit</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2616</v>
+        <v>222</v>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11">
@@ -700,24 +700,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATATAATTAT</t>
+          <t>AATAATAAAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0101001101</t>
+          <t>0010010001</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Albert Mestres, Carles Rebassa, Carles Riba, Francesc Garriga, Gabriel Ferrater, Gerard Vergés, Jaume Bofill, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Josep Carner, J. V. Foix, Maria Josep Escrivà, Maria Mercè Marçal, Marià Manent, Miquel Costa, Miquel Desclot, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Màrius Torres, Narcís Comadira, Nicolau Dols, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Armand Obiols, Llorenç Moyà, Blai Bonet, Guillem Cabrer, Joan Salvat-Papasseit, Àngel Terrón, Albert Balasch, Anna Gual, Pere Gimferrer, Miquel Bezares, Manuel Forcano, Miquel-Àngel Llauger, Miquel-Àngel Adrover</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Joan Margarit, Àngel Guimerà, Gerard Vergés, Isabel-Clara Simó, Joan Valls, Jaume Coll Mariné, Jaume Pérez Montaner, Josep Carner, Joan Francesc Mira, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Vinyoli, Joan-Elies Adell, Jordi Llavina, Josep Iglésies, Josep Maria de Sagarra, Àngel Fabregat, Salvador Oliva i Llinàs, Arnau Barios, Biel Mesquida, Carles Riba, Bonaventura Ubach, Carles Camps, Carles Cardó, Carles Miralles, Daniel Martínez, David Jou, Ester Xargay, Feliu Formosa, Francesc Parcerisas, Josep Sebastià Pons, Llorenç Riber, Lluís Calvo, Maria Rosa Font i Massot, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Màrius Sampere, Miquel Costa i Llobera, Miquel Dolç Dolç, Miquel Martí i Pol, Arcadi Gomila, Narcís Comadira, Oriol Izquierdo, Pau Sais, Pere Gimferrer, Pere Prat, Pere Suau, Rafael Catardi, Ramon Miquel, Ramon Solsona i Sancho, Rosa Leveroni, Verdaguer i Santaló, Jacint, Txema Martínez, Vicent Andrés Estellés, Xavier Lloveras, Albert Mestres, Bonaventura Gassol, Pere Gomila, Magí Morera</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>355</v>
+        <v>144</v>
       </c>
       <c r="F11" t="n">
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -726,24 +726,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATATATAATT</t>
+          <t>TATAATATAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0101010011</t>
+          <t>1010010101</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Albert Mestres, Carles Rebassa, Carles Riba, Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Jaume Bofill, Jaume Coll Mariné, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Josep Carner, J. V. Foix, Lluís Calvo, Maria Mercè Marçal, Marià Manent, Miquel Desclot, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Màrius Torres, Narcís Comadira, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Llorenç Moyà, Bernat Cifre, Blai Bonet, Guillem Cabrer, Joan Salvat-Papasseit, Àngel Terrón, Albert Balasch, Anna Gual, Pere Gimferrer, Miquel Bezares, Manuel Forcano, Miquel-Àngel Llauger, Vicenç Llorca, Miquel-Àngel Adrover</t>
+          <t>Miquel dels Sants Oliver, Bernat Cifre, Blai Bonet, Carles Rebassa, Xulio Ricardo Trigo, Joan Prat, Enric Casasses, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Guillem Cabrer, Isabel-Clara Simó, Joan Valls, Jaume Agelet, Jaume Bofill, Jaume C. Pons Alorda, Jaume Coll Mariné, Jaume Pérez Montaner, Josep Carner, Joan Amade, Joan Brossa, Joan Francesc Mira, Joan Fuster, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Salvat-Papasseit, Bartomeu Rosselló-Pòrcel, Joan Vinyoli, Joan-Elies Adell, Joan-Lluís Lluís, Joaquim Folguera, Jordi Cornudella, Jordi Gebellí i Puig, Jordi Llavina, Jordi Pere Cerdà, Jordi Sarsanedas i Vives, Josep Borrell, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Albert Balasch, Clementina Arderiu, Ponç Pons, Alfred Badia, Andreu Gomila, Àngel Fabregat, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, Arnau Pons, August Bover Font, Bartomeu Fiol, Bernat Artola, Biel Mesquida, Carles Riba, Bonaventura Ubach, Camil Geis, Carles Camps, Carles Cardó, Carles Duarte, Carles Fages de Climent, Carles Grandó, Carles Miralles, Enric Sòria, Carles Riera, Carles Salvador, Àngel Ruiz i Pablo, Carme Guasch, Josep Maria Llompart, Josep Romeu i Figueras, Daniel Martínez, David Jou, Garriga i Barata, Francesc, Ester Xargay, Feliu Formosa, Josep Vallverdú, Francesc Almela, Francesc Parcerisas, Frederic Clascar, Antoni Moll, Josep Maria Sala-Valldaura, Josep Sebastià Pons, J. V. Foix, Llorenç Moyà, Llorenç Riber, Lluís Alpera, Lluís Calvo, Lluís Freixas, Maria Rosa Font i Massot, Manuel Forcano, Maria Àngels Anglada, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Maria Josep Escrivà, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Màrius Torres, Marta Pessarrodona, Miquel Bezares, Miquel Costa i Llobera, Miquel de Palol, Miquel Creus, Miquel Dolç Dolç, Miquel Forteza, Miquel Lladó, Miquel Martí i Pol, Miquel Àngel Adrover, Miquel Àngel Llauger, Arcadi Gomila, Narcís Comadira, Nicolau Dols, Olga Xirinacs i Díaz, Oriol Izquierdo, Pau Sais, Pere Gimferrer, Pere Prat, Pere Rovira, Pere Suau, Perejaume, Rafael Catardi, Ramir Augé, Ramon Miquel, Ramon Solsona i Sancho, Ricard Permanyer, Rosa Leveroni, Gustau Juan, Verdaguer i Santaló, Jacint, Salvador Perarnau, Salvador Sunyer, Sebastià Alzamora, Sebastià Sánchez-Juan, Segimon Serrallonga, Susanna Rafart, Tomàs Garcés, Txema Martínez, Vicenç Llorca, Vicent Andrés Estellés, Francesc Xavier Casp, Xavier Lloveras, Anna Gual, Biel Mercadal, Albert Mestres, Joan Alcover, Gabriel de la S.T. Sampol, Damià Rotger, David Vidal, Bonaventura Gassol, Vicent Alonso, Joan Teixidor, Francesc Florit, Frederic Erdozaín, Guillem Benejam, Joan Francesc López, Joan Timoner, Pere Gomila, Piera i Rubió, Josep, Magí Morera, Agustí Bartra, Àlex Susanna</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>322</v>
+        <v>3888</v>
       </c>
       <c r="F12" t="n">
-        <v>42</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13">
@@ -752,24 +752,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AATTATATAT</t>
+          <t>ATAATAATAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0011010101</t>
+          <t>0100100101</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Albert Mestres, Carles Riba, Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Jaume Bofill, Jaume Coll Mariné, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Josep Carner, J. V. Foix, Lluís Calvo, Maria Josep Escrivà, Maria Mercè Marçal, Marià Manent, Miquel Costa, Miquel Desclot, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Narcís Comadira, Nicolau Dols, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Llorenç Moyà, Gabriel de la S.T. Sampol, Blai Bonet, Guillem Cabrer, Joan Salvat-Papasseit, Àngel Terrón, Pere Gimferrer, Miquel Bezares, Manuel Forcano, Miquel-Àngel Llauger, Miquel-Àngel Adrover</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Xulio Ricardo Trigo, Joan Prat, Enric Casasses, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Guillem Cabrer, Helena Rufat, Isabel-Clara Simó, Joan Valls, Jaume Bofill, Jaume C. Pons Alorda, Jaume Coll Mariné, Josep Carner, Joan Amade, Joan Brossa, Joan Francesc Mira, Joan Fuster, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Salvat-Papasseit, Bartomeu Rosselló-Pòrcel, Joan Vinyoli, Joan-Elies Adell, Joan-Lluís Lluís, Joan Manuel Pérez i Pinya, Joaquim Folguera, Jordi Llavina, Jordi Sarsanedas i Vives, Josep Borrell, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Josep Maria López-Picó, Albert Balasch, Clementina Arderiu, Ponç Pons, Alfred Badia, Andreu Gomila, Àngel Fabregat, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, Arnau Pons, August Bover Font, Bartomeu Fiol, Bernat Artola, Biel Mesquida, Carles Riba, Bonaventura Ubach, Carles Camps, Carles Cardó, Carles Grandó, Carles Miralles, Enric Sòria, Carles Riera, Carles Salvador, Josep Maria Llompart, Josep Romeu i Figueras, Daniel Martínez, David Jou, Garriga i Barata, Francesc, Ester Xargay, Feliu Formosa, Josep Vallverdú, Francesc Parcerisas, Francesc Vallverdú, Frederic Clascar, Antoni Moll, Josep Maria Sala-Valldaura, Josep Sebastià Pons, J. V. Foix, Llorenç Moyà, Llorenç Riber, Lluís Alpera, Manuel Forcano, Maria Àngels Anglada, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Maria Josep Escrivà, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Màrius Torres, Marta Pessarrodona, Miquel Bezares, Miquel Costa i Llobera, Miquel de Palol, Miquel Creus, Miquel Dolç Dolç, Miquel Forteza, Miquel Lladó, Miquel Martí i Pol, Miquel Àngel Adrover, Miquel Àngel Llauger, Arcadi Gomila, Narcís Comadira, Olga Xirinacs i Díaz, Pau Sais, Pere Gimferrer, Pere Prat, Pere Rovira, Pere Suau, Perejaume, Rafael Catardi, Ramir Augé, Ramon Miquel, Ramon Solsona i Sancho, Ricard Permanyer, Gustau Juan, Verdaguer i Santaló, Jacint, Sebastià Alzamora, Segimon Serrallonga, Susanna Rafart, Tomàs Garcés, Txema Martínez, Vicenç Llorca, Vicent Andrés Estellés, Francesc Xavier Casp, Anna Gual, Biel Mercadal, Albert Mestres, Joan Alcover, Gabriel de la S.T. Sampol, Damià Rotger, David Vidal, Bonaventura Gassol, Vicent Alonso, Joan Teixidor, Francesc Florit, Joan Francesc López, Joan Timoner, Pere Gomila, Piera i Rubió, Josep, Magí Morera, Agustí Bartra, Àlex Susanna</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>363</v>
+        <v>1489</v>
       </c>
       <c r="F13" t="n">
-        <v>40</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
@@ -778,24 +778,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATTAATATAT</t>
+          <t>TATATAATAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0110010101</t>
+          <t>1010100101</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Albert Mestres, Carles Rebassa, Carles Riba, Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Jaume Bofill, Jaume Coll Mariné, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Josep Carner, J. V. Foix, Lluís Calvo, Maria Mercè Marçal, Marià Manent, Miquel Costa, Miquel Desclot, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Màrius Torres, Narcís Comadira, Nicolau Dols, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Llorenç Moyà, Bernat Cifre, Blai Bonet, Joan Salvat-Papasseit, Àngel Terrón, Albert Balasch, Pere Gimferrer, Manuel Forcano, Miquel-Àngel Llauger, Vicenç Llorca, Miquel-Àngel Adrover</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Xulio Ricardo Trigo, Joan Prat, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Guillem Cabrer, Isabel-Clara Simó, Joan Valls, Jaume Agelet, Jaume Bofill, Jaume C. Pons Alorda, Josep Carner, Joan Amade, Joan Brossa, Joan Ferraté, Joan Francesc Mira, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Salvat-Papasseit, Bartomeu Rosselló-Pòrcel, Joan Vinyoli, Joan-Elies Adell, Joan-Lluís Lluís, Joan Manuel Pérez i Pinya, Jordi Llavina, Jordi Pere Cerdà, Jordi Sarsanedas i Vives, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Josep Maria López-Picó, Albert Balasch, Clementina Arderiu, Ponç Pons, Andreu Gomila, Àngel Fabregat, Salvador Oliva i Llinàs, Arnau Barios, Arnau Pons, August Bover Font, Bartomeu Fiol, Bernat Artola, Biel Mesquida, Carles Riba, Bonaventura Ubach, Carles Cardó, Carles Duarte, Carles Fages de Climent, Carles Grandó, Carles Miralles, Enric Sòria, Carles Riera, Carles Salvador, Carme Guasch, Josep Maria Llompart, Josep Romeu i Figueras, David Jou, Garriga i Barata, Francesc, Ester Xargay, Feliu Formosa, Josep Vallverdú, Francesc Parcerisas, Frederic Clascar, Antoni Moll, Josep Maria Sala-Valldaura, Josep Sebastià Pons, J. V. Foix, Llorenç Riber, Manuel Forcano, Maria Àngels Anglada, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Màrius Torres, Marta Pessarrodona, Miquel Bezares, Miquel Costa i Llobera, Miquel de Palol, Miquel Dolç Dolç, Miquel Lladó, Miquel Martí i Pol, Narcís Comadira, Olga Xirinacs i Díaz, Oriol Izquierdo, Pau Sais, Pere Gimferrer, Pere Rovira, Pere Suau, Perejaume, Ramir Augé, Ramon Miquel, Rosa Leveroni, Gustau Juan, Verdaguer i Santaló, Jacint, Sebastià Alzamora, Tomàs Garcés, Txema Martínez, Vicenç Llorca, Vicent Andrés Estellés, Xavier Lloveras, Anna Gual, Biel Mercadal, Albert Mestres, Joan Alcover, Damià Rotger, David Vidal, Vicent Alonso, Joan Teixidor, Francesc Florit, Joan Francesc López, Joan Timoner, Pere Gomila, Piera i Rubió, Josep, Magí Morera, Agustí Bartra, Àlex Susanna</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>408</v>
+        <v>766</v>
       </c>
       <c r="F14" t="n">
-        <v>41</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -804,24 +804,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AATATATAAT</t>
+          <t>ATAAATATAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0010101001</t>
+          <t>0100010101</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Albert Mestres, Carles Riba, Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Jaume Bofill, Jaume Coll Mariné, Joan Alcover, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Josep Carner, Josep Piera, J. V. Foix, Maria Josep Escrivà, Maria Mercè Marçal, Marià Manent, Miquel Costa, Miquel Desclot, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Màrius Torres, Narcís Comadira, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Armand Obiols, Llorenç Moyà, Blai Bonet, Guillem Cabrer, Joan-Manuel Pérez, Joan Salvat-Papasseit, Albert Balasch, Anna Gual, Miquel Bezares, Manuel Forcano, Miquel-Àngel Llauger, Vicenç Llorca</t>
+          <t>Miquel dels Sants Oliver, Bernat Cifre, Blai Bonet, Joan Prat, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Guillem Cabrer, Joan Valls, Jaume Bofill, Jaume C. Pons Alorda, Jaume Pérez Montaner, Josep Carner, Joan Brossa, Joan Francesc Mira, Joan Fuster, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Vinyoli, Jordi Cornudella, Jordi Llavina, Josep Borrell, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Albert Balasch, Ponç Pons, Andreu Gomila, Àngel Fabregat, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, Arnau Pons, Bernat Artola, Carles Riba, Bonaventura Ubach, Carles Cardó, Enric Sòria, Carles Riera, David Jou, Garriga i Barata, Francesc, Feliu Formosa, Josep Vallverdú, Francesc Almela, Francesc Parcerisas, Josep Maria Sala-Valldaura, Josep Sebastià Pons, J. V. Foix, Llorenç Moyà, Llorenç Riber, Lluís Alpera, Lluís Calvo, Maria Rosa Font i Massot, Manuel Forcano, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Maria Mercè Marçal, Màrius Sampere, Màrius Torres, Miquel Costa i Llobera, Miquel de Palol, Miquel Creus, Miquel Dolç Dolç, Miquel Forteza, Miquel Lladó, Miquel Martí i Pol, Miquel Àngel Adrover, Miquel Àngel Llauger, Narcís Comadira, Oriol Izquierdo, Pau Sais, Pere Gimferrer, Pere Rovira, Rafael Catardi, Ramon Miquel, Ramon Solsona i Sancho, Ricard Permanyer, Gustau Juan, Verdaguer i Santaló, Jacint, Susanna Rafart, Tomàs Garcés, Txema Martínez, Vicent Andrés Estellés, Xavier Lloveras, Biel Mercadal, Albert Mestres, Joan Alcover, Gabriel de la S.T. Sampol, Bonaventura Gassol, Vicent Alonso, Joan Teixidor, Joan Francesc López, Joan Timoner, Pere Gomila, Magí Morera, Agustí Bartra, Àlex Susanna</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>499</v>
+        <v>423</v>
       </c>
       <c r="F15" t="n">
-        <v>42</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -830,24 +830,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TAAAATATAT</t>
+          <t>TATATATAAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>1000010101</t>
+          <t>1010101001</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Albert Mestres, Gabriel Ferrater, Joan Margarit, Joan Oliver, Narcís Comadira, Vicent Andrés Estellés, Blai Bonet, Guillem Cabrer</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Carles Rebassa, Xulio Ricardo Trigo, Joan Prat, Enric Casasses, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Guillem Cabrer, Helena Rufat, Isabel-Clara Simó, Joan Valls, Jaume Bofill, Jaume C. Pons Alorda, Jaume Coll Mariné, Jaume Pérez Montaner, Josep Carner, Joan Amade, Joan Brossa, Joan Francesc Mira, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Salvat-Papasseit, Bartomeu Rosselló-Pòrcel, Joan Vinyoli, Joan-Elies Adell, Joan-Lluís Lluís, Joan Manuel Pérez i Pinya, Joaquim Folguera, Jordi Gebellí i Puig, Jordi Llavina, Jordi Pere Cerdà, Jordi Sarsanedas i Vives, Josep Borrell, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Clementina Arderiu, Ponç Pons, Andreu Gomila, Àngel Fabregat, Salvador Oliva i Llinàs, Arnau Barios, Arnau Pons, August Bover Font, Bartomeu Fiol, Bernat Artola, Biel Mesquida, Carles Riba, Bonaventura Ubach, Camil Geis, Carles Cardó, Carles Duarte, Carles Fages de Climent, Carles Grandó, Carles Miralles, Carles Salvador, Carme Guasch, Josep Maria Llompart, Josep Romeu i Figueras, Daniel Martínez, David Jou, Garriga i Barata, Francesc, Ester Xargay, Feliu Formosa, Josep Vallverdú, Francesc Parcerisas, Francesc Vallverdú, Frederic Clascar, Josep Maria Sala-Valldaura, Josep Sebastià Pons, J. V. Foix, Llorenç Moyà, Llorenç Riber, Manuel Forcano, Maria Àngels Anglada, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Maria Josep Escrivà, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Màrius Torres, Marta Pessarrodona, Miquel Bezares, Miquel Costa i Llobera, Miquel de Palol, Miquel Dolç Dolç, Miquel Lladó, Miquel Martí i Pol, Arcadi Gomila, Narcís Comadira, Nicolau Dols, Olga Xirinacs i Díaz, Oriol Izquierdo, Pau Sais, Pere Gimferrer, Pere Prat, Pere Rovira, Pere Suau, Perejaume, Ramir Augé, Ramon Solsona i Sancho, Ricard Permanyer, Rosa Leveroni, Gustau Juan, Verdaguer i Santaló, Jacint, Sebastià Alzamora, Sebastià Sánchez-Juan, Segimon Serrallonga, Tomàs Garcés, Txema Martínez, Vicenç Llorca, Vicent Andrés Estellés, Francesc Xavier Casp, Joan Alcover, Gabriel de la S.T. Sampol, Damià Rotger, David Vidal, Bonaventura Gassol, Vicent Alonso, Joan Teixidor, Francesc Florit, Frederic Erdozaín, Guillem Benejam, Joan Francesc López, Joan Timoner, Pere Gomila, Piera i Rubió, Josep, Magí Morera, Agustí Bartra, Àlex Susanna</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>1014</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17">
@@ -856,24 +856,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AATATAATAT</t>
+          <t>ATATATAAAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0010100101</t>
+          <t>0101010001</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Albert Mestres, Carles Riba, Francesc Garriga, Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Jaume Bofill, Jaume Coll Mariné, Joan Alcover, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Josep Carner, Josep Piera, J. V. Foix, Lluís Calvo, Maria Josep Escrivà, Maria Mercè Marçal, Marià Manent, Miquel Costa, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Màrius Torres, Narcís Comadira, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Armand Obiols, Llorenç Moyà, Blai Bonet, Joan-Manuel Pérez, Joan Salvat-Papasseit, Albert Balasch, Anna Gual, Miquel Bezares, Manuel Forcano</t>
+          <t>Miquel dels Sants Oliver, Bernat Cifre, Blai Bonet, Xulio Ricardo Trigo, Enric Casasses, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Isabel-Clara Simó, Joan Valls, Jaume Bofill, Jaume C. Pons Alorda, Jaume Pérez Montaner, Josep Carner, Joan Francesc Mira, Joan Fuster, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Vinyoli, Joan Manuel Pérez i Pinya, Jordi Llavina, Àngel Terrón, Josep Iglésies, Josep Maria de Sagarra, Andreu Gomila, Àngel Fabregat, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, Bernat Artola, Carles Riba, Bonaventura Ubach, Carles Cardó, Enric Sòria, Carme Guasch, David Jou, Josep Vallverdú, Francesc Parcerisas, Frederic Clascar, Josep Sebastià Pons, Llorenç Moyà, Llorenç Riber, Maria Rosa Font i Massot, Manuel Forcano, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Màrius Torres, Miquel Costa i Llobera, Miquel de Palol, Miquel Dolç Dolç, Miquel Lladó, Miquel Martí i Pol, Miquel Àngel Adrover, Miquel Àngel Llauger, Narcís Comadira, Pau Sais, Pere Prat, Perejaume, Rafael Catardi, Ramir Augé, Ramon Miquel, Ramon Solsona i Sancho, Verdaguer i Santaló, Jacint, Sebastià Alzamora, Tomàs Garcés, Txema Martínez, Vicent Andrés Estellés, Damià Rotger, Vicent Alonso, Joan Timoner, Pere Gomila</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>303</v>
+        <v>212</v>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -882,24 +882,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TATATAATAT</t>
+          <t>ATATATAATT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1010100101</t>
+          <t>0101010011</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Albert Mestres, Carles Riba, Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Jaume Bofill, Joan Alcover, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Josep Carner, J. V. Foix, Maria Mercè Marçal, Marià Manent, Miquel Costa, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Màrius Torres, Narcís Comadira, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Armand Obiols, Blai Bonet, Guillem Cabrer, Joan-Manuel Pérez, Joan Salvat-Papasseit, Albert Balasch, Anna Gual, Pere Gimferrer, Miquel Bezares, Manuel Forcano, Vicenç Llorca</t>
+          <t>Miquel dels Sants Oliver, Bernat Cifre, Blai Bonet, Carles Rebassa, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Guillem Cabrer, Isabel-Clara Simó, Joan Valls, Jaume Bofill, Jaume C. Pons Alorda, Jaume Coll Mariné, Jaume Pérez Montaner, Josep Carner, Joan Brossa, Joan Francesc Mira, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Salvat-Papasseit, Bartomeu Rosselló-Pòrcel, Joan Vinyoli, Joan-Lluís Lluís, Jordi Cornudella, Jordi Gebellí i Puig, Jordi Llavina, Jordi Pere Cerdà, Jordi Sarsanedas i Vives, Josep Borrell, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Josep Maria López-Picó, Albert Balasch, Clementina Arderiu, Ponç Pons, Alfred Badia, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, August Bover Font, Bartomeu Fiol, Biel Mesquida, Carles Riba, Bonaventura Ubach, Carles Camps, Carles Cardó, Carles Grandó, Carles Miralles, Enric Sòria, Carles Riera, Carles Salvador, Àngel Ruiz i Pablo, Josep Maria Llompart, Garriga i Barata, Francesc, Ester Xargay, Feliu Formosa, Josep Vallverdú, Francesc Almela, Francesc Parcerisas, Francesc Vallverdú, Frederic Clascar, Josep Sebastià Pons, J. V. Foix, Llorenç Moyà, Llorenç Riber, Lluís Alpera, Lluís Calvo, Lluís Freixas, Maria Rosa Font i Massot, Manuel Forcano, Maria Àngels Anglada, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Maria Mercè Marçal, Màrius Sampere, Màrius Torres, Miquel Bezares, Miquel Costa i Llobera, Miquel de Palol, Miquel Creus, Miquel Dolç Dolç, Miquel Lladó, Miquel Martí i Pol, Miquel Àngel Adrover, Miquel Àngel Llauger, Narcís Comadira, Olga Xirinacs i Díaz, Oriol Izquierdo, Pau Sais, Pere Gimferrer, Pere Rovira, Pere Suau, Rafael Catardi, Ramir Augé, Ramon Miquel, Ramon Solsona i Sancho, Ricard Permanyer, Rosa Leveroni, Verdaguer i Santaló, Jacint, Salvador Perarnau, Sebastià Alzamora, Sebastià Sánchez-Juan, Susanna Rafart, Tomàs Garcés, Txema Martínez, Vicenç Llorca, Vicent Andrés Estellés, Xavier Lloveras, Anna Gual, Biel Mercadal, Albert Mestres, Joan Alcover, Gabriel de la S.T. Sampol, David Vidal, Joan Teixidor, Guillem Benejam, Joan Francesc López, Joan Timoner, Pere Gomila, Magí Morera, Agustí Bartra, Àlex Susanna</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>258</v>
+        <v>643</v>
       </c>
       <c r="F18" t="n">
-        <v>37</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19">
@@ -908,24 +908,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ATAATTAATT</t>
+          <t>ATAATATATT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0100110011</t>
+          <t>0100101011</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Albert Mestres, Màrius Sampere, Vicent Andrés Estellés, Blai Bonet, Miquel-Àngel Adrover</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Enric Casasses, Joan Margarit, Àngel Guimerà, Gerard Vergés, Jaume Bofill, Jaume Coll Mariné, Josep Carner, Joan Francesc Mira, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Salvat-Papasseit, Bartomeu Rosselló-Pòrcel, Joan Vinyoli, Joan-Elies Adell, Joan Manuel Pérez i Pinya, Joaquim Folguera, Jordi Llavina, Josep Borrell, Josep Iglésies, Josep Lleonart, Ponç Pons, Àngel Fabregat, Salvador Oliva i Llinàs, Arnau Barios, Arnau Pons, August Bover Font, Biel Mesquida, Carles Riba, Bonaventura Ubach, Carles Cardó, Carles Grandó, Carles Miralles, Daniel Martínez, Ester Xargay, Josep Vallverdú, Francesc Parcerisas, Josep Sebastià Pons, Llorenç Moyà, Lluís Alpera, Manuel Forcano, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Màrius Sampere, Miquel Bezares, Miquel Costa i Llobera, Miquel Dolç Dolç, Miquel Lladó, Miquel Àngel Llauger, Arcadi Gomila, Narcís Comadira, Pau Sais, Pere Gimferrer, Pere Prat, Pere Rovira, Pere Suau, Ramir Augé, Verdaguer i Santaló, Jacint, Sebastià Alzamora, Segimon Serrallonga, Vicent Andrés Estellés, Biel Mercadal, Albert Mestres, Joan Alcover, Damià Rotger, Vicent Alonso, Joan Teixidor, Francesc Florit, Joan Timoner, Magí Morera, Agustí Bartra</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>175</v>
       </c>
       <c r="F19" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
@@ -934,24 +934,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATAAATTAAT</t>
+          <t>AATTATATAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0100011001</t>
+          <t>0011010101</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Albert Mestres, Joan Oliver, Màrius Sampere, Bernat Cifre</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Enric Casasses, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Guillem Cabrer, Joan Valls, Jaume Agelet, Jaume Bofill, Jaume C. Pons Alorda, Jaume Coll Mariné, Jaume Pérez Montaner, Josep Carner, Joan Brossa, Joan Francesc Mira, Joan Fuster, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Salvat-Papasseit, Joan Vinyoli, Joaquim Folguera, Jordi Cornudella, Jordi Llavina, Jordi Sarsanedas i Vives, Josep Borrell, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Clementina Arderiu, Alfred Badia, Andreu Gomila, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, August Bover Font, Bartomeu Fiol, Carles Riba, Bonaventura Ubach, Carles Camps, Carles Cardó, Carles Miralles, Àngel Ruiz i Pablo, Josep Maria Llompart, Josep Romeu i Figueras, Daniel Martínez, Ester Xargay, Feliu Formosa, Josep Vallverdú, Francesc Almela, Frederic Clascar, Josep Sebastià Pons, J. V. Foix, Llorenç Moyà, Llorenç Riber, Lluís Alpera, Lluís Calvo, Lluís Freixas, Maria Rosa Font i Massot, Manuel Forcano, Maria Àngels Anglada, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Maria Josep Escrivà, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Miquel Bezares, Miquel Costa i Llobera, Miquel de Palol, Miquel Creus, Miquel Dolç Dolç, Miquel Forteza, Miquel Lladó, Miquel Martí i Pol, Miquel Àngel Adrover, Miquel Àngel Llauger, Narcís Comadira, Nicolau Dols, Olga Xirinacs i Díaz, Oriol Izquierdo, Pau Sais, Pere Gimferrer, Pere Prat, Pere Rovira, Pere Suau, Perejaume, Rafael Catardi, Ramir Augé, Ramon Miquel, Ramon Solsona i Sancho, Ricard Permanyer, Verdaguer i Santaló, Jacint, Sebastià Alzamora, Sebastià Sánchez-Juan, Segimon Serrallonga, Susanna Rafart, Tomàs Garcés, Txema Martínez, Vicent Andrés Estellés, Albert Mestres, Joan Alcover, Gabriel de la S.T. Sampol, Damià Rotger, Bonaventura Gassol, Vicent Alonso, Joan Teixidor, Guillem Benejam, Joan Francesc López, Joan Timoner, Pere Gomila, Magí Morera, Agustí Bartra</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>687</v>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21">
@@ -960,24 +960,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATAATTATAT</t>
+          <t>AATATAATAT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0100110101</t>
+          <t>0010100101</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Albert Mestres, Carles Riba, Gabriel Ferrater, Jaume Bofill, Jaume Coll Mariné, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Josep Carner, Marià Manent, Miquel Desclot, Miquel Martí i Pol, Màrius Sampere, Màrius Torres, Narcís Comadira, Nicolau Dols, Salvador Oliva, Vicent Andrés Estellés, Armand Obiols, Llorenç Moyà, Bernat Cifre, Blai Bonet, Joan-Manuel Pérez, Joan Salvat-Papasseit, Albert Balasch, Anna Gual, Manuel Forcano, Miquel-Àngel Llauger, Miquel-Àngel Adrover</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Xulio Ricardo Trigo, Joan Prat, Enric Casasses, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Helena Rufat, Isabel-Clara Simó, Joan Valls, Jaume Agelet, Jaume Bofill, Jaume C. Pons Alorda, Jaume Coll Mariné, Josep Carner, Joan Amade, Joan Brossa, Joan Ferraté, Joan Francesc Mira, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Salvat-Papasseit, Bartomeu Rosselló-Pòrcel, Joan Vinyoli, Joan-Elies Adell, Joan-Lluís Lluís, Joan Manuel Pérez i Pinya, Joaquim Folguera, Jordi Cornudella, Jordi Llavina, Jordi Pere Cerdà, Jordi Sarsanedas i Vives, Josep Borrell, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Albert Balasch, Clementina Arderiu, Ponç Pons, Alfred Badia, Andreu Gomila, Àngel Fabregat, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, Arnau Pons, August Bover Font, Bartomeu Fiol, Bernat Artola, Biel Mesquida, Carles Riba, Bonaventura Ubach, Camil Geis, Carles Camps, Carles Cardó, Carles Fages de Climent, Carles Grandó, Carles Miralles, Enric Sòria, Carles Salvador, Àngel Ruiz i Pablo, Josep Maria Llompart, Josep Romeu i Figueras, Daniel Martínez, David Jou, Garriga i Barata, Francesc, Ester Xargay, Feliu Formosa, Josep Vallverdú, Francesc Almela, Francesc Parcerisas, Antoni Moll, Josep Maria Sala-Valldaura, Josep Sebastià Pons, J. V. Foix, Llorenç Moyà, Llorenç Riber, Lluís Alpera, Lluís Calvo, Lluís Freixas, Maria Rosa Font i Massot, Manuel Forcano, Maria Àngels Anglada, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Maria Josep Escrivà, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Màrius Torres, Marta Pessarrodona, Miquel Bezares, Miquel Costa i Llobera, Miquel de Palol, Miquel Dolç Dolç, Miquel Forteza, Miquel Lladó, Miquel Martí i Pol, Arcadi Gomila, Narcís Comadira, Pau Sais, Pere Rovira, Pere Suau, Perejaume, Rafael Catardi, Ramir Augé, Ramon Miquel, Ramon Solsona i Sancho, Rosa Leveroni, Gustau Juan, Verdaguer i Santaló, Jacint, Salvador Sunyer, Sebastià Alzamora, Sebastià Sánchez-Juan, Segimon Serrallonga, Tomàs Garcés, Txema Martínez, Vicent Andrés Estellés, Xavier Bru de Sala, Francesc Xavier Casp, Xavier Lloveras, Anna Gual, Biel Mercadal, Albert Mestres, Joan Alcover, Damià Rotger, David Vidal, Bonaventura Gassol, Vicent Alonso, Joan Teixidor, Francesc Florit, Frederic Erdozaín, Guillem Benejam, Pere Gomila, Piera i Rubió, Josep, Magí Morera, Agustí Bartra, Àlex Susanna</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>96</v>
+        <v>1054</v>
       </c>
       <c r="F21" t="n">
-        <v>31</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22">
@@ -986,24 +986,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TATAATATAT</t>
+          <t>AATATATAAT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1010010101</t>
+          <t>0010101001</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Albert Mestres, Carles Rebassa, Carles Riba, Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Jaume Bofill, Jaume Coll Mariné, Joan Alcover, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Josep Carner, Josep Piera, J. V. Foix, Lluís Calvo, Maria Josep Escrivà, Maria Mercè Marçal, Marià Manent, Miquel Costa, Miquel Desclot, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Màrius Torres, Narcís Comadira, Nicolau Dols, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Armand Obiols, Llorenç Moyà, Bernat Cifre, Gabriel de la S.T. Sampol, Blai Bonet, Guillem Cabrer, Joan Salvat-Papasseit, Àngel Terrón, Albert Balasch, Anna Gual, Pere Gimferrer, Miquel Bezares, Manuel Forcano, Miquel-Àngel Llauger, Vicenç Llorca, Miquel-Àngel Adrover</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Xulio Ricardo Trigo, Joan Prat, Enric Casasses, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Guillem Cabrer, Helena Rufat, Isabel-Clara Simó, Joan Valls, Jaume Bofill, Jaume C. Pons Alorda, Jaume Coll Mariné, Jaume Pérez Montaner, Josep Carner, Joan Amade, Joan Brossa, Joan Ferraté, Joan Francesc Mira, Joan Fuster, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Salvat-Papasseit, Bartomeu Rosselló-Pòrcel, Joan Vinyoli, Joan-Elies Adell, Joan-Lluís Lluís, Joan Manuel Pérez i Pinya, Jordi Llavina, Jordi Pere Cerdà, Jordi Sarsanedas i Vives, Josep Borrell, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Albert Balasch, Clementina Arderiu, Ponç Pons, Andreu Gomila, Àngel Fabregat, Salvador Oliva i Llinàs, Arnau Barios, Arnau Pons, August Bover Font, Bartomeu Fiol, Bernat Artola, Biel Mesquida, Carles Riba, Bonaventura Ubach, Camil Geis, Carles Camps, Carles Cardó, Carles Duarte, Carles Fages de Climent, Carles Grandó, Carles Miralles, Enric Sòria, Carles Riera, Carles Salvador, Àngel Ruiz i Pablo, Carme Guasch, Josep Maria Llompart, Josep Romeu i Figueras, Daniel Martínez, David Jou, Ester Xargay, Feliu Formosa, Josep Vallverdú, Francesc Parcerisas, Francesc Vallverdú, Frederic Clascar, Josep Maria Sala-Valldaura, Josep Sebastià Pons, J. V. Foix, Llorenç Moyà, Lluís Alpera, Manuel Forcano, Maria Àngels Anglada, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Maria Josep Escrivà, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Màrius Torres, Marta Pessarrodona, Miquel Bezares, Miquel Costa i Llobera, Miquel de Palol, Miquel Creus, Miquel Dolç Dolç, Miquel Lladó, Miquel Martí i Pol, Miquel Àngel Llauger, Arcadi Gomila, Narcís Comadira, Olga Xirinacs i Díaz, Oriol Izquierdo, Pau Sais, Pere Gimferrer, Pere Prat, Pere Rovira, Pere Suau, Perejaume, Rafael Catardi, Ramir Augé, Ramon Miquel, Ramon Solsona i Sancho, Ricard Permanyer, Rosa Leveroni, Gustau Juan, Verdaguer i Santaló, Jacint, Salvador Perarnau, Salvador Sunyer, Sebastià Alzamora, Segimon Serrallonga, Tomàs Garcés, Txema Martínez, Vicenç Llorca, Vicent Andrés Estellés, Francesc Xavier Casp, Anna Gual, Biel Mercadal, Albert Mestres, Joan Alcover, Gabriel de la S.T. Sampol, Damià Rotger, David Vidal, Bonaventura Gassol, Vicent Alonso, Joan Teixidor, Francesc Florit, Guillem Benejam, Joan Francesc López, Joan Timoner, Pere Gomila, Piera i Rubió, Josep, Magí Morera, Agustí Bartra, Àlex Susanna</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1691</v>
+        <v>1602</v>
       </c>
       <c r="F22" t="n">
-        <v>49</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23">
@@ -1012,24 +1012,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ATTTATATAT</t>
+          <t>ATATATATTT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0111010101</t>
+          <t>0101010111</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Albert Mestres, Carles Rebassa, Gerard Vergés, Jacint Verdaguer, Joan Margarit, Joan Oliver, Josep Carner, Marià Manent, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Narcís Comadira, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Blai Bonet, Miquel-Àngel Llauger, Vicenç Llorca</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Carles Rebassa, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Jaume Bofill, Josep Carner, Joan Francesc Mira, Joan Fuster, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Vinyoli, Jordi Gebellí i Puig, Josep Borrell, Josep Maria de Sagarra, Josep Maria López-Picó, Albert Balasch, Ponç Pons, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, Bartomeu Fiol, Bernat Artola, Carles Riba, Bonaventura Ubach, Carles Camps, Carles Cardó, Carles Fages de Climent, Carles Riera, Àngel Ruiz i Pablo, Garriga i Barata, Francesc, Ester Xargay, Feliu Formosa, Josep Sebastià Pons, Llorenç Moyà, Llorenç Riber, Maria Mercè Marçal, Màrius Sampere, Marta Pessarrodona, Miquel Costa i Llobera, Miquel de Palol, Miquel Lladó, Miquel Martí i Pol, Miquel Àngel Llauger, Narcís Comadira, Pau Sais, Perejaume, Rafael Catardi, Ramon Miquel, Ramon Solsona i Sancho, Rosa Leveroni, Sebastià Sánchez-Juan, Txema Martínez, Vicent Andrés Estellés, Francesc Xavier Casp, Joan Alcover, Agustí Bartra</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="F23" t="n">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24">
@@ -1038,24 +1038,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TATTATATAT</t>
+          <t>AATATTATAT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1011010101</t>
+          <t>0010110101</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Albert Mestres, Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, J. V. Foix, Maria Mercè Marçal, Marià Manent, Miquel Costa, Miquel Desclot, Miquel Martí i Pol, Narcís Comadira, Nicolau Dols, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Llorenç Moyà, Gabriel de la S.T. Sampol, Blai Bonet, Guillem Cabrer, Àngel Terrón, Pere Gimferrer, Miquel Bezares</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Enric Casasses, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Helena Rufat, Isabel-Clara Simó, Joan Valls, Josep Carner, Joan Francesc Mira, Joan Maragall, Joan Oliver, Joan Vinyoli, Joan Manuel Pérez i Pinya, Jordi Pere Cerdà, Àngel Terrón, Josep Maria de Sagarra, Ponç Pons, Andreu Gomila, Salvador Oliva i Llinàs, August Bover Font, Bonaventura Ubach, Camil Geis, Carles Cardó, Josep Romeu i Figueras, Francesc Parcerisas, Josep Sebastià Pons, J. V. Foix, Llorenç Moyà, Llorenç Riber, Maria Antònia Salvà, Marià Villangómez, Maria Mercè Marçal, Miquel Costa i Llobera, Miquel Dolç Dolç, Miquel Martí i Pol, Miquel Àngel Adrover, Miquel Àngel Llauger, Narcís Comadira, Pau Sais, Pere Gimferrer, Pere Rovira, Pere Suau, Rafael Catardi, Ramon Miquel, Verdaguer i Santaló, Jacint, Sebastià Alzamora, Sebastià Sánchez-Juan, Txema Martínez, Vicent Andrés Estellés, Albert Mestres, Joan Francesc López, Magí Morera</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="F24" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ATAAATATAT</t>
+          <t>TATAATAAAT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0100010101</t>
+          <t>1010010001</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Albert Mestres, Carles Riba, Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Jaume Bofill, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Josep Carner, J. V. Foix, Lluís Calvo, Maria Mercè Marçal, Marià Manent, Miquel Costa, Miquel Desclot, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Màrius Torres, Narcís Comadira, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Armand Obiols, Llorenç Moyà, Bernat Cifre, Blai Bonet, Guillem Cabrer, Àngel Terrón, Albert Balasch, Manuel Forcano, Miquel-Àngel Llauger, Miquel-Àngel Adrover</t>
+          <t>Miquel dels Sants Oliver, Joan Margarit, Gerard Vergés, Joan Valls, Jaume Pérez Montaner, Josep Carner, Joan Francesc Mira, Joan Fuster, Joan Oliver, Jordi Llavina, Josep Borrell, Àngel Terrón, Josep Iglésies, Josep Maria de Sagarra, Albert Balasch, Clementina Arderiu, Salvador Oliva i Llinàs, Bartomeu Fiol, Bonaventura Ubach, Carles Cardó, Feliu Formosa, Francesc Parcerisas, Marià Villangómez, Miquel Costa i Llobera, Miquel Lladó, Pau Sais, Pere Gimferrer, Rafael Catardi, Ramir Augé, Sebastià Alzamora, Segimon Serrallonga, Txema Martínez, Vicent Andrés Estellés, Anna Gual</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="F25" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26">
@@ -1090,24 +1090,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TAATATATTT</t>
+          <t>TATAATAATT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1001010111</t>
+          <t>1010010011</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Albert Mestres, Jacint Verdaguer, Joan Margarit, Joan Oliver, Miquel Martí i Pol, Narcís Comadira, Salvador Oliva, Tomàs Garcés, Blai Bonet</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Xulio Ricardo Trigo, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Isabel-Clara Simó, Joan Valls, Jaume Bofill, Josep Carner, Joan Francesc Mira, Joan Fuster, Salvador Espriu, Joan Oliver, Jordi Cornudella, Jordi Gebellí i Puig, Josep Borrell, Josep Iglésies, Josep Maria de Sagarra, Salvador Oliva i Llinàs, Arnau Barios, August Bover Font, Bartomeu Fiol, Carles Riba, Bonaventura Ubach, Carles Camps, Carles Cardó, Carles Fages de Climent, Carles Grandó, Àngel Ruiz i Pablo, Josep Maria Llompart, Daniel Martínez, Feliu Formosa, Josep Vallverdú, Francesc Almela, Francesc Parcerisas, Llorenç Moyà, Llorenç Riber, Maria Rosa Font i Massot, Marià Manent, Maria Josep Escrivà, Maria Mercè Marçal, Màrius Sampere, Màrius Torres, Marta Pessarrodona, Miquel Costa i Llobera, Miquel Lladó, Miquel Martí i Pol, Miquel Àngel Adrover, Miquel Àngel Llauger, Narcís Comadira, Pau Sais, Pere Rovira, Ramon Miquel, Ramon Solsona i Sancho, Ricard Permanyer, Gustau Juan, Verdaguer i Santaló, Jacint, Tomàs Garcés, Txema Martínez, Vicent Andrés Estellés, Vicent Alonso, Francesc Florit, Joan Timoner, Pere Gomila, Agustí Bartra</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="F26" t="n">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27">
@@ -1116,24 +1116,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AATTATATTT</t>
+          <t>TATAATTAAT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0011010111</t>
+          <t>1010011001</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Albert Mestres, Joan Oliver, Blai Bonet</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Joan Margarit, Àngel Guimerà, Jaume Bofill, Joan Francesc Mira, Joan Maragall, Salvador Espriu, Joan Pons Marquès, Joan Salvat-Papasseit, Jordi Llavina, Josep Lleonart, Josep Maria de Sagarra, Andreu Gomila, Salvador Oliva i Llinàs, Bonaventura Ubach, Carles Cardó, Josep Romeu i Figueras, Feliu Formosa, Josep Vallverdú, Llorenç Moyà, Manuel Forcano, Marià Villangómez, Màrius Sampere, Miquel Creus, Miquel Lladó, Miquel Martí i Pol, Pere Rovira, Rafael Catardi, Sebastià Alzamora, Vicent Andrés Estellés, Francesc Xavier Casp, Bonaventura Gassol, Frederic Erdozaín, Magí Morera, Agustí Bartra</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="F27" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28">
@@ -1142,24 +1142,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AATAATAAAT</t>
+          <t>AATAATAATT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0010010001</t>
+          <t>0010010011</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Albert Mestres, Carles Riba, Gerard Vergés, Jaume Coll Mariné, Joan Margarit, Joan Oliver, Joan Vinyoli, Lluís Calvo, Marià Manent, Miquel Martí i Pol, Màrius Sampere, Narcís Comadira, Salvador Espriu, Salvador Oliva, Vicent Andrés Estellés, Blai Bonet</t>
+          <t>Miquel dels Sants Oliver, Bernat Cifre, Blai Bonet, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Guillem Cabrer, Isabel-Clara Simó, Joan Valls, Jaume Bofill, Jaume C. Pons Alorda, Jaume Pérez Montaner, Josep Carner, Joan Amade, Joan Francesc Mira, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Salvat-Papasseit, Joan Vinyoli, Joan-Elies Adell, Jordi Cornudella, Jordi Gebellí i Puig, Jordi Llavina, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Ponç Pons, Alfred Badia, Andreu Gomila, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, August Bover Font, Bartomeu Fiol, Biel Mesquida, Carles Riba, Bonaventura Ubach, Camil Geis, Carles Camps, Carles Cardó, Carles Fages de Climent, Carles Miralles, Enric Sòria, Àngel Ruiz i Pablo, Josep Maria Llompart, Josep Romeu i Figueras, Garriga i Barata, Francesc, Feliu Formosa, Josep Vallverdú, Antoni Moll, Josep Sebastià Pons, J. V. Foix, Llorenç Moyà, Llorenç Riber, Lluís Alpera, Maria Rosa Font i Massot, Manuel Forcano, Marià Manent, Marià Villangómez, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Màrius Torres, Miquel Costa i Llobera, Miquel de Palol, Miquel Creus, Miquel Dolç Dolç, Miquel Lladó, Miquel Martí i Pol, Miquel Àngel Adrover, Miquel Àngel Llauger, Narcís Comadira, Nicolau Dols, Oriol Izquierdo, Pau Sais, Pere Rovira, Pere Suau, Rafael Catardi, Ramir Augé, Ramon Miquel, Rosa Leveroni, Verdaguer i Santaló, Jacint, Sebastià Alzamora, Sebastià Sánchez-Juan, Segimon Serrallonga, Tomàs Garcés, Txema Martínez, Vicent Andrés Estellés, Francesc Xavier Casp, Xavier Lloveras, Biel Mercadal, Joan Alcover, Gabriel de la S.T. Sampol, Damià Rotger, Bonaventura Gassol, Vicent Alonso, Joan Teixidor, Francesc Florit, Pere Gomila, Magí Morera, Agustí Bartra, Àlex Susanna</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>52</v>
+        <v>382</v>
       </c>
       <c r="F28" t="n">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
@@ -1168,24 +1168,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>TATATATTAT</t>
+          <t>AATAATTAAT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1010101101</t>
+          <t>0010011001</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Albert Mestres, Gabriel Ferrater, Joan Margarit, Joan Oliver, Joan Vinyoli, Maria Josep Escrivà, Marià Manent, Miquel Lladó, Màrius Sampere, Narcís Comadira, Salvador Oliva, Llorenç Moyà, Bernat Cifre, Blai Bonet, Joan-Manuel Pérez</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Joan Margarit, Gabriel Ferrater, Gerard Vergés, Joan Valls, Jaume Bofill, Jaume C. Pons Alorda, Josep Carner, Joan Francesc Mira, Salvador Espriu, Joan Oliver, Jordi Llavina, Josep Borrell, Àngel Terrón, Josep Iglésies, Josep Maria de Sagarra, Albert Balasch, Salvador Oliva i Llinàs, Bartomeu Fiol, Bernat Artola, Biel Mesquida, Carles Riba, Bonaventura Ubach, Carles Camps, Carles Cardó, Carles Grandó, Josep Romeu i Figueras, Daniel Martínez, David Jou, Feliu Formosa, Josep Sebastià Pons, J. V. Foix, Llorenç Moyà, Marià Manent, Marià Villangómez, Màrius Sampere, Miquel Costa i Llobera, Miquel Creus, Miquel Dolç Dolç, Miquel Martí i Pol, Arcadi Gomila, Narcís Comadira, Pau Sais, Pere Gimferrer, Pere Rovira, Perejaume, Rafael Catardi, Ramir Augé, Ramon Miquel, Segimon Serrallonga, Vicent Andrés Estellés, Xavier Lloveras, Albert Mestres, David Vidal, Bonaventura Gassol, Joan Timoner, Magí Morera</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="F29" t="n">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -1194,24 +1194,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ATAATATAAT</t>
+          <t>ATATAAATAT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0100101001</t>
+          <t>0101000101</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Albert Mestres, Carles Riba, Francesc Garriga, Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Jaume Bofill, Joan Alcover, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Josep Carner, J. V. Foix, Maria Josep Escrivà, Maria Mercè Marçal, Marià Manent, Miquel Costa, Miquel Desclot, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Màrius Torres, Narcís Comadira, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Armand Obiols, Llorenç Moyà, Bernat Cifre, Blai Bonet, Joan-Manuel Pérez, Joan Salvat-Papasseit, Albert Balasch, Anna Gual, Pere Gimferrer, Miquel Bezares, Manuel Forcano, Miquel-Àngel Llauger, Vicenç Llorca</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Carles Rebassa, Xulio Ricardo Trigo, Enric Casasses, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Guillem Cabrer, Jaume Bofill, Josep Carner, Joan Brossa, Joan Francesc Mira, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Salvat-Papasseit, Joan Vinyoli, Joan-Elies Adell, Joan-Lluís Lluís, Jordi Cornudella, Jordi Llavina, Josep Borrell, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Albert Balasch, Clementina Arderiu, Alfred Badia, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, August Bover Font, Bernat Artola, Biel Mesquida, Carles Riba, Bonaventura Ubach, Carles Camps, Carles Cardó, Carles Fages de Climent, Carles Riera, Àngel Ruiz i Pablo, Josep Maria Llompart, Ester Xargay, Feliu Formosa, Josep Vallverdú, Francesc Parcerisas, Francesc Vallverdú, Frederic Clascar, J. V. Foix, Llorenç Moyà, Llorenç Riber, Lluís Freixas, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Màrius Torres, Miquel Costa i Llobera, Miquel Dolç Dolç, Miquel Martí i Pol, Miquel Àngel Adrover, Miquel Àngel Llauger, Arcadi Gomila, Narcís Comadira, Nicolau Dols, Olga Xirinacs i Díaz, Oriol Izquierdo, Pau Sais, Perejaume, Rafael Catardi, Ramir Augé, Ricard Permanyer, Verdaguer i Santaló, Jacint, Salvador Perarnau, Salvador Sunyer, Sebastià Alzamora, Susanna Rafart, Tomàs Garcés, Txema Martínez, Vicent Andrés Estellés, Xavier Bru de Sala, Biel Mercadal, Albert Mestres, Joan Alcover, Vicent Alonso, Joan Teixidor, Frederic Erdozaín, Joan Timoner, Magí Morera, Àlex Susanna</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>392</v>
+        <v>298</v>
       </c>
       <c r="F30" t="n">
-        <v>42</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
@@ -1220,24 +1220,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ATATATTATT</t>
+          <t>AAATATATAT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0101011011</t>
+          <t>0001010101</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Albert Mestres, Màrius Sampere, Vicent Andrés Estellés, Bernat Cifre</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Guillem Cabrer, Joan Valls, Jaume C. Pons Alorda, Josep Carner, Joan Brossa, Joan Francesc Mira, Joan Fuster, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Vinyoli, Jordi Llavina, Josep Lleonart, Josep Maria de Sagarra, Josep Maria López-Picó, Clementina Arderiu, Salvador Oliva i Llinàs, Arnau Barios, Arnau Pons, Bernat Artola, Carles Riba, Bonaventura Ubach, Carles Cardó, Feliu Formosa, Josep Sebastià Pons, J. V. Foix, Llorenç Moyà, Llorenç Riber, Lluís Alpera, Lluís Freixas, Manuel Forcano, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Miquel Costa i Llobera, Miquel de Palol, Miquel Creus, Miquel Dolç Dolç, Miquel Martí i Pol, Miquel Àngel Adrover, Miquel Àngel Llauger, Narcís Comadira, Pau Sais, Ramir Augé, Ramon Miquel, Gustau Juan, Verdaguer i Santaló, Jacint, Sebastià Alzamora, Txema Martínez, Vicent Andrés Estellés, Albert Mestres, Joan Alcover, Gabriel de la S.T. Sampol, Damià Rotger, Vicent Alonso, Joan Teixidor, Francesc Florit, Guillem Benejam, Joan Francesc López, Pere Gomila, Magí Morera</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="F31" t="n">
-        <v>4</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
@@ -1246,24 +1246,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ATATAAATAT</t>
+          <t>TAATATAATT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0101000101</t>
+          <t>1001010011</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Albert Mestres, Carles Rebassa, Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Jaume Bofill, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Maria Mercè Marçal, Marià Manent, Miquel Costa, Miquel Martí i Pol, Màrius Sampere, Màrius Torres, Narcís Comadira, Nicolau Dols, Salvador Espriu, Tomàs Garcés, Vicent Andrés Estellés, Llorenç Moyà, Blai Bonet, Guillem Cabrer, Joan Salvat-Papasseit, Albert Balasch</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Joan Valls, Jaume Bofill, Jaume Pérez Montaner, Josep Carner, Joan Brossa, Joan Francesc Mira, Joan Fuster, Salvador Espriu, Joan Oliver, Joan Salvat-Papasseit, Bartomeu Rosselló-Pòrcel, Joan Vinyoli, Jordi Llavina, Jordi Sarsanedas i Vives, Àngel Terrón, Josep Iglésies, Josep Maria de Sagarra, Clementina Arderiu, Ponç Pons, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, Bartomeu Fiol, Carles Riba, Bonaventura Ubach, Carles Camps, Carles Cardó, Josep Maria Llompart, Frederic Clascar, J. V. Foix, Llorenç Moyà, Llorenç Riber, Manuel Forcano, Maria Antònia Salvà, Marià Manent, Màrius Sampere, Miquel Costa i Llobera, Miquel Lladó, Miquel Martí i Pol, Miquel Àngel Adrover, Miquel Àngel Llauger, Narcís Comadira, Pau Sais, Pere Rovira, Rafael Catardi, Ramon Miquel, Gustau Juan, Salvador Sunyer, Txema Martínez, Vicent Andrés Estellés, Biel Mercadal, Joan Alcover, Joan Timoner, Piera i Rubió, Josep</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="F32" t="n">
-        <v>26</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33">
@@ -1272,24 +1272,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AAATATATAT</t>
+          <t>ATAATATTAT</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0001010101</t>
+          <t>0100101101</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Albert Mestres, Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, J. V. Foix, Maria Mercè Marçal, Miquel Desclot, Miquel Martí i Pol, Màrius Sampere, Narcís Comadira, Salvador Espriu, Salvador Oliva, Vicent Andrés Estellés, Guillem Cabrer, Manuel Forcano, Miquel-Àngel Llauger, Miquel-Àngel Adrover</t>
+          <t>Miquel dels Sants Oliver, Joan Margarit, Gabriel Ferrater, Isabel-Clara Simó, Joan Valls, Jaume Bofill, Joan Francesc Mira, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Manuel Pérez i Pinya, Jordi Sarsanedas i Vives, Àngel Terrón, Josep Iglésies, Andreu Gomila, Arnau Barios, August Bover Font, Bartomeu Fiol, Biel Mesquida, Carles Riba, Bonaventura Ubach, Carles Cardó, Feliu Formosa, Francesc Parcerisas, Josep Sebastià Pons, Lluís Alpera, Manuel Forcano, Maria Antònia Salvà, Maria Mercè Marçal, Miquel Bezares, Miquel Lladó, Miquel Martí i Pol, Olga Xirinacs i Díaz, Pau Sais, Pere Gimferrer, Pere Prat, Pere Rovira, Rafael Catardi, Ramir Augé, Verdaguer i Santaló, Jacint, Salvador Perarnau, Tomàs Garcés, Txema Martínez, Vicent Andrés Estellés, Biel Mercadal, Magí Morera, Àlex Susanna</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F33" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34">
@@ -1298,24 +1298,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ATATAATATT</t>
+          <t>TATATATATT</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0101001011</t>
+          <t>1010101011</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Albert Mestres, Carles Rebassa, Carles Riba, Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Jaume Bofill, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Josep Piera, Maria Josep Escrivà, Maria Mercè Marçal, Marià Manent, Miquel Martí i Pol, Màrius Sampere, Narcís Comadira, Salvador Espriu, Salvador Oliva, Vicent Andrés Estellés, Blai Bonet, Joan Salvat-Papasseit, Anna Gual, Pere Gimferrer, Miquel Bezares, Miquel-Àngel Adrover</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Carles Rebassa, Joan Margarit, Gabriel Ferrater, Gerard Vergés, Isabel-Clara Simó, Joan Valls, Jaume Bofill, Jaume C. Pons Alorda, Josep Carner, Joan Amade, Joan Francesc Mira, Joan Fuster, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan-Lluís Lluís, Joan Manuel Pérez i Pinya, Josep Iglésies, Salvador Oliva i Llinàs, Bartomeu Fiol, Bernat Artola, Carles Riba, Bonaventura Ubach, Carles Cardó, Carles Grandó, Enric Sòria, Daniel Martínez, Ester Xargay, Feliu Formosa, Francesc Parcerisas, J. V. Foix, Lluís Alpera, Manuel Forcano, Maria Àngels Anglada, Maria Antònia Salvà, Maria Josep Escrivà, Mariàngela Vilallonga, Màrius Sampere, Màrius Torres, Marta Pessarrodona, Miquel Bezares, Miquel Costa i Llobera, Miquel Martí i Pol, Arcadi Gomila, Narcís Comadira, Olga Xirinacs i Díaz, Pau Sais, Pere Gimferrer, Ramir Augé, Verdaguer i Santaló, Jacint, Salvador Sunyer, Txema Martínez, Vicent Andrés Estellés, Anna Gual, Biel Mercadal, Joan Alcover, Damià Rotger, Joan Teixidor, Piera i Rubió, Josep, Magí Morera, Agustí Bartra, Àlex Susanna</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F34" t="n">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35">
@@ -1324,24 +1324,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AATATTATAT</t>
+          <t>TATATTATAT</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0010110101</t>
+          <t>1010110101</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Albert Mestres, Gabriel Ferrater, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Josep Carner, J. V. Foix, Maria Mercè Marçal, Miquel Martí i Pol, Narcís Comadira, Salvador Oliva, Vicent Andrés Estellés, Llorenç Moyà, Blai Bonet, Joan-Manuel Pérez, Àngel Terrón, Miquel-Àngel Llauger, Miquel-Àngel Adrover</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Joan Margarit, Gerard Vergés, Joan Valls, Josep Carner, Joan Amade, Joan Brossa, Salvador Espriu, Joan Oliver, Joan Manuel Pérez i Pinya, Josep Maria de Sagarra, Josep Maria López-Picó, Salvador Oliva i Llinàs, Bonaventura Ubach, Carles Cardó, Carles Grandó, Josep Maria Llompart, Daniel Martínez, Feliu Formosa, Josep Sebastià Pons, Llorenç Moyà, Llorenç Riber, Lluís Alpera, Lluís Calvo, Maria Rosa Font i Massot, Maria Antònia Salvà, Màrius Sampere, Miquel Bezares, Miquel Costa i Llobera, Miquel Creus, Miquel Lladó, Miquel Martí i Pol, Miquel Àngel Llauger, Narcís Comadira, Ramir Augé, Tomàs Garcés, Txema Martínez, Vicent Andrés Estellés, Albert Mestres, Damià Rotger, David Vidal, Pere Gomila, Àlex Susanna</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="F35" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36">
@@ -1350,24 +1350,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AATTAATAAT</t>
+          <t>TAATAATAAT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0011001001</t>
+          <t>1001001001</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Albert Mestres, Gabriel Ferrater, Jaume Bofill, Jaume Coll Mariné, Joan Alcover, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, J. V. Foix, Maria Josep Escrivà, Maria Mercè Marçal, Marià Manent, Miquel Martí i Pol, Màrius Sampere, Narcís Comadira, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Armand Obiols, Blai Bonet, Joan Salvat-Papasseit, Albert Balasch, Anna Gual, Vicenç Llorca</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Carles Rebassa, Xulio Ricardo Trigo, Joan Prat, Enric Casasses, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Helena Rufat, Isabel-Clara Simó, Joan Valls, Jaume Agelet, Jaume Bofill, Jaume C. Pons Alorda, Jaume Pérez Montaner, Josep Carner, Joan Amade, Joan Brossa, Joan Ferraté, Joan Francesc Mira, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Salvat-Papasseit, Joan Vinyoli, Joan-Elies Adell, Joan-Lluís Lluís, Joan Manuel Pérez i Pinya, Joaquim Folguera, Jordi Cornudella, Jordi Gebellí i Puig, Jordi Llavina, Jordi Pere Cerdà, Jordi Sarsanedas i Vives, Josep Borrell, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Josep Maria López-Picó, Albert Balasch, Clementina Arderiu, Alfred Badia, Andreu Gomila, Àngel Fabregat, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, Arnau Pons, August Bover Font, Bartomeu Fiol, Bernat Artola, Biel Mesquida, Carles Riba, Bonaventura Ubach, Camil Geis, Carles Camps, Carles Cardó, Carles Fages de Climent, Carles Grandó, Carles Miralles, Enric Sòria, Carles Riera, Carles Salvador, Àngel Ruiz i Pablo, Josep Maria Llompart, Josep Romeu i Figueras, Daniel Martínez, David Jou, Ester Xargay, Feliu Formosa, Josep Vallverdú, Francesc Parcerisas, Francesc Vallverdú, Frederic Clascar, Josep Maria Sala-Valldaura, Josep Sebastià Pons, J. V. Foix, Llorenç Moyà, Llorenç Riber, Lluís Alpera, Lluís Calvo, Maria Rosa Font i Massot, Manuel Forcano, Maria Àngels Anglada, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Maria Josep Escrivà, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Màrius Torres, Marta Pessarrodona, Miquel Bezares, Miquel Costa i Llobera, Miquel de Palol, Miquel Creus, Miquel Forteza, Miquel Lladó, Miquel Martí i Pol, Narcís Comadira, Olga Xirinacs i Díaz, Oriol Izquierdo, Pau Sais, Pere Gimferrer, Pere Prat, Pere Rovira, Pere Suau, Perejaume, Rafael Catardi, Ramir Augé, Ramon Solsona i Sancho, Ricard Permanyer, Gustau Juan, Verdaguer i Santaló, Jacint, Salvador Perarnau, Sebastià Alzamora, Sebastià Sánchez-Juan, Segimon Serrallonga, Tomàs Garcés, Txema Martínez, Vicenç Llorca, Vicent Andrés Estellés, Francesc Xavier Casp, Xavier Lloveras, Biel Mercadal, Albert Mestres, Joan Alcover, Damià Rotger, David Vidal, Bonaventura Gassol, Vicent Alonso, Joan Teixidor, Francesc Florit, Guillem Benejam, Joan Francesc López, Pere Gomila, Piera i Rubió, Josep, Magí Morera, Agustí Bartra, Àlex Susanna</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>70</v>
+        <v>1581</v>
       </c>
       <c r="F36" t="n">
-        <v>26</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37">
@@ -1376,24 +1376,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AATAATTAAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0010011001</t>
+          <t>0101100101</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Albert Mestres, Carles Rebassa, Carles Riba, Gabriel Ferrater, Gerard Vergés, Jaume Bofill, Joan Maragall, Joan Margarit, Joan Oliver, Jordi Llavina, Josep Carner, J. V. Foix, Marià Manent, Miquel Costa, Miquel Desclot, Miquel Martí i Pol, Màrius Sampere, Narcís Comadira, Salvador Espriu, Salvador Oliva, Vicent Andrés Estellés, Llorenç Moyà, Blai Bonet, Àngel Terrón, Albert Balasch, Pere Gimferrer</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Gabriel Ferrater, Josep Carner, Joan Francesc Mira, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Vinyoli, Joan-Elies Adell, Jordi Llavina, Josep Iglésies, Josep Lleonart, Josep Maria López-Picó, Antoni Puigvert, Salvador Oliva i Llinàs, Bartomeu Fiol, Biel Mesquida, Carles Riba, Carles Cardó, Carles Grandó, Ester Xargay, Josep Vallverdú, Josep Sebastià Pons, Llorenç Moyà, Llorenç Riber, Lluís Alpera, Maria Antònia Salvà, Marià Manent, Màrius Sampere, Miquel Costa i Llobera, Miquel Martí i Pol, Narcís Comadira, Pau Sais, Sebastià Alzamora, Txema Martínez, Vicent Andrés Estellés, Francesc Xavier Casp, Anna Gual, Damià Rotger, Vicent Alonso, Francesc Florit, Joan Timoner, Magí Morera</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F37" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38">
@@ -1402,24 +1402,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ATATATATTT</t>
+          <t>AATATATATT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0101010111</t>
+          <t>0010101011</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Carles Rebassa, Carles Riba, Gabriel Ferrater, Gerard Vergés, Jaume Bofill, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Maria Mercè Marçal, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Narcís Comadira, Salvador Espriu, Salvador Oliva, Vicent Andrés Estellés, Llorenç Moyà, Blai Bonet, Albert Balasch, Miquel-Àngel Llauger</t>
+          <t>Miquel dels Sants Oliver, Blai Bonet, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Helena Rufat, Joan Valls, Jaume Bofill, Josep Carner, Joan Amade, Joan Francesc Mira, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Bartomeu Rosselló-Pòrcel, Joan Vinyoli, Joan-Lluís Lluís, Joan Manuel Pérez i Pinya, Jordi Llavina, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Andreu Gomila, Salvador Oliva i Llinàs, Arnau Barios, Bernat Artola, Carles Riba, Bonaventura Ubach, Carles Cardó, Carles Grandó, Carles Miralles, Daniel Martínez, Ester Xargay, Feliu Formosa, Francesc Parcerisas, J. V. Foix, Llorenç Moyà, Lluís Alpera, Manuel Forcano, Mariàngela Vilallonga, Màrius Sampere, Miquel Bezares, Miquel Costa i Llobera, Miquel de Palol, Miquel Lladó, Miquel Martí i Pol, Miquel Àngel Llauger, Arcadi Gomila, Narcís Comadira, Pau Sais, Pere Gimferrer, Pere Rovira, Perejaume, Ramir Augé, Ricard Permanyer, Segimon Serrallonga, Txema Martínez, Vicent Andrés Estellés, Xavier Lloveras, Anna Gual, Joan Alcover, Gabriel de la S.T. Sampol, Damià Rotger, Joan Teixidor, Magí Morera</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="F38" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39">
@@ -1428,24 +1428,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ATATTATATT</t>
+          <t>TATTATTAAT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0101101011</t>
+          <t>1011011001</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Carles Rebassa, Joan Oliver, Joan Vinyoli, Marià Manent, Narcís Comadira, Vicent Andrés Estellés</t>
+          <t>Bernat Cifre, Joan Francesc Mira</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1454,24 +1454,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>TATATATAAT</t>
+          <t>ATAATTATAT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1010101001</t>
+          <t>0100110101</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Carles Rebassa, Carles Riba, Francesc Garriga, Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Jaume Bofill, Jaume Coll Mariné, Joan Alcover, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Josep Carner, Josep Piera, J. V. Foix, Maria Josep Escrivà, Maria Mercè Marçal, Marià Manent, Miquel Costa, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Màrius Torres, Narcís Comadira, Nicolau Dols, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Armand Obiols, Llorenç Moyà, Blai Bonet, Guillem Cabrer, Joan-Manuel Pérez, Joan Salvat-Papasseit, Miquel Bezares, Manuel Forcano, Vicenç Llorca</t>
+          <t>Bernat Cifre, Blai Bonet, Joan Prat, Enric Casasses, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Joan Valls, Jaume Bofill, Jaume Coll Mariné, Josep Carner, Joan Amade, Joan Francesc Mira, Joan Maragall, Joan Oliver, Joan Salvat-Papasseit, Joan Vinyoli, Joan Manuel Pérez i Pinya, Jordi Llavina, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Josep Maria López-Picó, Albert Balasch, Ponç Pons, Alfred Badia, Salvador Oliva i Llinàs, Arnau Barios, Biel Mesquida, Bonaventura Ubach, Carles Camps, Carles Cardó, Carles Grandó, Enric Sòria, Josep Maria Llompart, David Jou, Feliu Formosa, Josep Maria Sala-Valldaura, Josep Sebastià Pons, Llorenç Moyà, Llorenç Riber, Lluís Alpera, Manuel Forcano, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Mariàngela Vilallonga, Màrius Sampere, Màrius Torres, Marta Pessarrodona, Miquel Costa i Llobera, Miquel Creus, Miquel Martí i Pol, Miquel Àngel Adrover, Miquel Àngel Llauger, Narcís Comadira, Nicolau Dols, Pau Sais, Pere Gimferrer, Pere Rovira, Pere Suau, Perejaume, Ramir Augé, Ricard Permanyer, Segimon Serrallonga, Susanna Rafart, Txema Martínez, Vicent Andrés Estellés, Anna Gual, Biel Mercadal, Albert Mestres, Damià Rotger, Vicent Alonso, Francesc Florit, Frederic Erdozaín, Joan Francesc López, Pere Gomila, Magí Morera, Agustí Bartra</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>346</v>
+        <v>208</v>
       </c>
       <c r="F40" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
@@ -1480,24 +1480,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ATTAATTTAT</t>
+          <t>ATAAATAATT</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0110011101</t>
+          <t>0100010011</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Carles Rebassa</t>
+          <t>Bernat Cifre, Blai Bonet, Gabriel Ferrater, Àngel Guimerà, Isabel-Clara Simó, Joan Francesc Mira, Joan Oliver, Josep Maria de Sagarra, Arnau Barios, Bartomeu Fiol, Àngel Ruiz i Pablo, Daniel Martínez, Francesc Almela, Llorenç Riber, Narcís Comadira, Oriol Izquierdo, Verdaguer i Santaló, Jacint, Vicent Andrés Estellés, Joan Alcover, Joan Timoner</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
@@ -1506,24 +1506,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ATTATTATAT</t>
+          <t>ATAAATTAAT</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0110110101</t>
+          <t>0100011001</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Carles Rebassa, Maria Mercè Marçal, Salvador Oliva, Blai Bonet, Albert Balasch</t>
+          <t>Bernat Cifre, Joan Valls, Josep Carner, Joan Francesc Mira, Arnau Barios, Carles Cardó, Àngel Ruiz i Pablo, Màrius Sampere, Arcadi Gomila, Perejaume, Rafael Catardi, Ramon Miquel, Albert Mestres, Joan Alcover</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
@@ -1532,24 +1532,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>TATATATATT</t>
+          <t>TATATATTAT</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1010101011</t>
+          <t>1010101101</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Carles Rebassa, Gabriel Ferrater, Gerard Vergés, Jaume Bofill, Joan Alcover, Joan Margarit, Joan Oliver, Josep Piera, J. V. Foix, Maria Josep Escrivà, Miquel Martí i Pol, Màrius Sampere, Màrius Torres, Narcís Comadira, Salvador Espriu, Salvador Oliva, Vicent Andrés Estellés, Blai Bonet, Joan-Manuel Pérez, Anna Gual, Miquel Bezares, Manuel Forcano</t>
+          <t>Bernat Cifre, Blai Bonet, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Joan Valls, Jaume C. Pons Alorda, Josep Carner, Joan Brossa, Joan Fuster, Joan Oliver, Joan Vinyoli, Joan-Elies Adell, Joan Manuel Pérez i Pinya, Jordi Sarsanedas i Vives, Josep Maria de Sagarra, Andreu Gomila, Salvador Oliva i Llinàs, Bartomeu Fiol, Carles Riba, Bonaventura Ubach, Carles Cardó, Carles Grandó, Daniel Martínez, Josep Vallverdú, Francesc Parcerisas, Llorenç Moyà, Marià Manent, Maria Josep Escrivà, Màrius Sampere, Marta Pessarrodona, Miquel Lladó, Narcís Comadira, Olga Xirinacs i Díaz, Ramir Augé, Ramon Miquel, Francesc Xavier Casp, Biel Mercadal, Albert Mestres, Joan Alcover, Guillem Benejam, Pere Gomila, Agustí Bartra</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F43" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44">
@@ -1558,24 +1558,24 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ATTAATTAAT</t>
+          <t>ATATATTATT</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0110011001</t>
+          <t>0101011011</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Carles Rebassa, Gabriel Ferrater, Salvador Oliva</t>
+          <t>Bernat Cifre, Joan Valls, Josep Iglésies, Carles Riba, Màrius Sampere, Ramon Miquel, Txema Martínez, Vicent Andrés Estellés, Albert Mestres</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
@@ -1584,24 +1584,24 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ATTATATTAT</t>
+          <t>TAATATATTT</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0110101101</t>
+          <t>1001010111</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Carles Rebassa, Marià Manent, Màrius Sampere, Vicent Andrés Estellés, Blai Bonet, Joan-Manuel Pérez</t>
+          <t>Blai Bonet, Joan Margarit, Josep Carner, Joan Brossa, Joan Oliver, Josep Iglésies, Josep Maria de Sagarra, Clementina Arderiu, Salvador Oliva i Llinàs, Arnau Barios, Carles Riba, Carles Cardó, Josep Romeu i Figueras, Francesc Almela, Miquel Costa i Llobera, Miquel Martí i Pol, Narcís Comadira, Sebastià Alzamora, Tomàs Garcés, Albert Mestres, Joan Timoner</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F45" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
@@ -1610,24 +1610,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TAATATAATT</t>
+          <t>TATTATAATT</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1001010011</t>
+          <t>1011010011</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Carles Riba, Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Jaume Bofill, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Josep Piera, J. V. Foix, Marià Manent, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Narcís Comadira, Salvador Espriu, Salvador Oliva, Vicent Andrés Estellés, Llorenç Moyà, Blai Bonet, Joan Salvat-Papasseit, Àngel Terrón, Manuel Forcano, Miquel-Àngel Llauger, Miquel-Àngel Adrover</t>
+          <t>Blai Bonet, Gabriel Ferrater, Gerard Vergés, Joan Francesc Mira, Joan Manuel Pérez i Pinya, Alfred Badia, Carles Riba, Maria Rosa Font i Massot, Joan Alcover, Joan Francesc López, Piera i Rubió, Josep</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="F46" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47">
@@ -1636,24 +1636,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AATAATAATT</t>
+          <t>TATTATATAT</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0010010011</t>
+          <t>1011010101</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Carles Riba, Francesc Garriga, Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Jaume Bofill, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Josep Carner, J. V. Foix, Maria Mercè Marçal, Marià Manent, Miquel Desclot, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Màrius Torres, Narcís Comadira, Nicolau Dols, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Llorenç Moyà, Bernat Cifre, Gabriel de la S.T. Sampol, Blai Bonet, Guillem Cabrer, Joan Salvat-Papasseit, Àngel Terrón, Manuel Forcano, Miquel-Àngel Llauger, Miquel-Àngel Adrover</t>
+          <t>Blai Bonet, Enric Casasses, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Guillem Cabrer, Joan Valls, Jaume Agelet, Jaume C. Pons Alorda, Jaume Pérez Montaner, Josep Carner, Joan Brossa, Joan Francesc Mira, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Vinyoli, Jordi Cornudella, Jordi Llavina, Josep Borrell, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Alfred Badia, Andreu Gomila, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, Bernat Artola, Carles Riba, Carles Camps, Carles Cardó, Carles Grandó, Josep Maria Llompart, Daniel Martínez, Francesc Parcerisas, Antoni Moll, Josep Sebastià Pons, J. V. Foix, Llorenç Moyà, Llorenç Riber, Lluís Freixas, Maria Rosa Font i Massot, Maria Àngels Anglada, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Maria Mercè Marçal, Miquel Bezares, Miquel Costa i Llobera, Miquel Creus, Miquel Dolç Dolç, Miquel Martí i Pol, Narcís Comadira, Nicolau Dols, Olga Xirinacs i Díaz, Pau Sais, Pere Gimferrer, Pere Suau, Rafael Catardi, Ramir Augé, Ramon Miquel, Ramon Solsona i Sancho, Ricard Permanyer, Verdaguer i Santaló, Jacint, Sebastià Alzamora, Sebastià Sánchez-Juan, Segimon Serrallonga, Tomàs Garcés, Txema Martínez, Vicent Andrés Estellés, Biel Mercadal, Albert Mestres, Joan Alcover, Gabriel de la S.T. Sampol, Bonaventura Gassol, Joan Teixidor, Guillem Benejam, Joan Francesc López, Magí Morera</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>172</v>
+        <v>361</v>
       </c>
       <c r="F47" t="n">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48">
@@ -1662,24 +1662,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TAATTATAAT</t>
+          <t>ATTAATAATT</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>1001101001</t>
+          <t>0110010011</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Carles Riba, Joan Oliver, Màrius Sampere, Narcís Comadira, Salvador Espriu, Vicent Andrés Estellés, Blai Bonet</t>
+          <t>Blai Bonet, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Joan Valls, Jaume Pérez Montaner, Josep Carner, Joan Oliver, Joan-Elies Adell, Jordi Gebellí i Puig, Àngel Terrón, Josep Maria de Sagarra, Salvador Oliva i Llinàs, Bartomeu Fiol, Bonaventura Ubach, Carles Miralles, Daniel Martínez, Feliu Formosa, Josep Sebastià Pons, Llorenç Moyà, Llorenç Riber, Miquel Costa i Llobera, Miquel Martí i Pol, Pau Sais, Pere Gimferrer, Rafael Catardi, Ricard Permanyer, Vicenç Llorca, Vicent Andrés Estellés, Xavier Lloveras, Gabriel de la S.T. Sampol</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="F48" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49">
@@ -1688,24 +1688,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ATTATATAAT</t>
+          <t>TAATAATATT</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0110101001</t>
+          <t>1001001011</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Carles Riba, Jacint Verdaguer, Jaume Bofill, Jaume Coll Mariné, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Maria Mercè Marçal, Marià Manent, Miquel Costa, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Narcís Comadira, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Llorenç Moyà, Blai Bonet, Anna Gual, Miquel-Àngel Llauger</t>
+          <t>Blai Bonet, Joan Prat, Joan Margarit, Gabriel Ferrater, Gerard Vergés, Joan Valls, Jaume C. Pons Alorda, Joan Brossa, Joan Francesc Mira, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Vinyoli, Joan-Lluís Lluís, Jordi Cornudella, Jordi Llavina, Josep Lleonart, Clementina Arderiu, Antoni Puigvert, Arnau Barios, Bernat Artola, Carles Riba, Carles Cardó, Carles Miralles, Josep Maria Llompart, David Jou, Ester Xargay, Josep Vallverdú, Francesc Parcerisas, Josep Sebastià Pons, Llorenç Riber, Maria Rosa Font i Massot, Manuel Forcano, Marià Manent, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Miquel Costa i Llobera, Miquel Dolç Dolç, Miquel Lladó, Miquel Martí i Pol, Narcís Comadira, Pau Sais, Pere Gimferrer, Ricard Permanyer, Sebastià Alzamora, Vicent Andrés Estellés, Biel Mercadal, Bonaventura Gassol, Piera i Rubió, Josep, Àlex Susanna</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="F49" t="n">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50">
@@ -1714,24 +1714,24 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AAATAATAAT</t>
+          <t>TAAAATATAT</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0001001001</t>
+          <t>1000010101</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Carles Riba, Gerard Vergés, Joan Alcover, Joan Oliver, Marià Manent, Miquel Martí i Pol, Màrius Torres, Narcís Comadira, Salvador Oliva, Vicent Andrés Estellés</t>
+          <t>Blai Bonet, Joan Margarit, Gabriel Ferrater, Guillem Cabrer, Josep Carner, Joan Oliver, August Bover Font, Bartomeu Fiol, Carles Cardó, Josep Maria Llompart, Josep Sebastià Pons, Lluís Alpera, Maria Àngels Anglada, Narcís Comadira, Vicent Andrés Estellés, Albert Mestres</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51">
@@ -1740,24 +1740,24 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>ATTATATAAT</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0101100101</t>
+          <t>0110101001</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Carles Riba, Gabriel Ferrater, Jacint Verdaguer, Joan Oliver, Joan Vinyoli, Jordi Llavina, Marià Manent, Miquel Costa, Miquel Martí i Pol, Màrius Sampere, Narcís Comadira, Salvador Espriu, Salvador Oliva, Vicent Andrés Estellés, Llorenç Moyà, Blai Bonet, Anna Gual</t>
+          <t>Blai Bonet, Joan Margarit, Àngel Guimerà, Isabel-Clara Simó, Joan Valls, Jaume Bofill, Jaume C. Pons Alorda, Jaume Coll Mariné, Josep Carner, Joan Francesc Mira, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Vinyoli, Joan-Elies Adell, Joan-Lluís Lluís, Jordi Llavina, Jordi Sarsanedas i Vives, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Andreu Gomila, Àngel Fabregat, Salvador Oliva i Llinàs, Arnau Barios, August Bover Font, Bernat Artola, Biel Mesquida, Carles Riba, Bonaventura Ubach, Carles Cardó, Carles Miralles, Enric Sòria, Daniel Martínez, David Jou, Feliu Formosa, Josep Vallverdú, Josep Maria Sala-Valldaura, Josep Sebastià Pons, Llorenç Moyà, Lluís Alpera, Lluís Freixas, Maria Antònia Salvà, Marià Manent, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Marta Pessarrodona, Miquel Costa i Llobera, Miquel Dolç Dolç, Miquel Lladó, Miquel Martí i Pol, Miquel Àngel Llauger, Narcís Comadira, Pau Sais, Pere Rovira, Perejaume, Rafael Catardi, Ramir Augé, Ramon Miquel, Ramon Solsona i Sancho, Ricard Permanyer, Gustau Juan, Verdaguer i Santaló, Jacint, Segimon Serrallonga, Tomàs Garcés, Txema Martínez, Vicent Andrés Estellés, Anna Gual, Joan Alcover, Damià Rotger, Vicent Alonso, Joan Teixidor, Francesc Florit, Guillem Benejam, Pere Gomila, Magí Morera, Agustí Bartra, Àlex Susanna</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="F51" t="n">
-        <v>17</v>
+        <v>81</v>
       </c>
     </row>
     <row r="52">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AATAAATAAT</t>
+          <t>TAATAAATAT</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0010001001</t>
+          <t>1001000101</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Carles Riba, Joan Oliver, Maria Josep Escrivà, Marià Manent, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Narcís Comadira, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Blai Bonet, Miquel Bezares</t>
+          <t>Blai Bonet, Xulio Ricardo Trigo, Joan Margarit, Gerard Vergés, Guillem Cabrer, Jaume Bofill, Jaume C. Pons Alorda, Josep Carner, Joan Amade, Joan Francesc Mira, Joan Maragall, Joan Oliver, Joan Pons Marquès, Joan Vinyoli, Joaquim Folguera, Jordi Llavina, Josep Maria de Sagarra, Albert Balasch, Andreu Gomila, Arnau Barios, Bartomeu Fiol, Bernat Artola, Carles Riba, Carles Camps, Carles Cardó, Daniel Martínez, Francesc Parcerisas, Llorenç Moyà, Llorenç Riber, Maria Àngels Anglada, Maria Antònia Salvà, Marià Manent, Maria Mercè Marçal, Miquel Costa i Llobera, Miquel Dolç Dolç, Miquel Lladó, Miquel Martí i Pol, Miquel Àngel Llauger, Narcís Comadira, Pau Sais, Pere Rovira, Perejaume, Ramon Miquel, Gustau Juan, Verdaguer i Santaló, Jacint, Txema Martínez, Vicent Andrés Estellés, Anna Gual, Joan Alcover, Joan Teixidor</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="F52" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53">
@@ -1792,24 +1792,24 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ATATTATAAT</t>
+          <t>ATTATAATAT</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0101101001</t>
+          <t>0110100101</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Carles Riba, Joan Maragall, Joan Margarit, Joan Oliver, Miquel Martí i Pol, Màrius Torres, Narcís Comadira, Salvador Oliva, Vicent Andrés Estellés, Joan Salvat-Papasseit, Albert Balasch, Manuel Forcano</t>
+          <t>Blai Bonet, Enric Casasses, Joan Margarit, Àngel Guimerà, Joan Valls, Joan Amade, Joan Francesc Mira, Joan Oliver, Joan Pons Marquès, Joan Vinyoli, Joan-Elies Adell, Jordi Llavina, Josep Iglésies, Josep Maria de Sagarra, Salvador Oliva i Llinàs, Bartomeu Fiol, Carles Riba, Bonaventura Ubach, Carles Cardó, Ester Xargay, J. V. Foix, Llorenç Riber, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Mariàngela Vilallonga, Màrius Sampere, Màrius Torres, Marta Pessarrodona, Miquel Costa i Llobera, Miquel Lladó, Arcadi Gomila, Narcís Comadira, Pau Sais, Pere Suau, Perejaume, Ramir Augé, Ramon Miquel, Verdaguer i Santaló, Jacint, Txema Martínez, Vicent Andrés Estellés, Biel Mercadal, Vicent Alonso, Francesc Florit, Joan Francesc López, Piera i Rubió, Josep, Agustí Bartra</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="F53" t="n">
-        <v>12</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54">
@@ -1818,24 +1818,24 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>TAATTAATAT</t>
+          <t>ATTATATATT</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1001100101</t>
+          <t>0110101011</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Carles Riba, Jaume Bofill, Joan Margarit, Joan Oliver, Marià Manent, Miquel Martí i Pol, Màrius Sampere, Màrius Torres, Narcís Comadira, Salvador Espriu, Vicent Andrés Estellés, Albert Balasch, Vicenç Llorca</t>
+          <t>Blai Bonet, Gerard Vergés, Joan Francesc Mira, Joan Oliver, Joan-Elies Adell, Carles Riba, Josep Vallverdú, Francesc Parcerisas, Maria Antònia Salvà, Marià Manent, Miquel Costa i Llobera, Narcís Comadira, Pau Sais, Vicent Andrés Estellés, Francesc Xavier Casp, Biel Mercadal, Joan Francesc López, Joan Timoner</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F54" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -1844,24 +1844,24 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>TATAATAATT</t>
+          <t>TATTAATAAT</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>1010010011</t>
+          <t>1011001001</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Carles Riba, Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Jaume Bofill, Joan Margarit, Joan Oliver, Josep Carner, Maria Josep Escrivà, Maria Mercè Marçal, Marià Manent, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Màrius Torres, Narcís Comadira, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Llorenç Moyà, Blai Bonet, Albert Balasch, Miquel-Àngel Llauger, Miquel-Àngel Adrover</t>
+          <t>Blai Bonet, Xulio Ricardo Trigo, Joan Prat, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Helena Rufat, Joan Valls, Jaume Bofill, Josep Carner, Joan Francesc Mira, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Salvat-Papasseit, Joan Vinyoli, Joan-Elies Adell, Jordi Cornudella, Jordi Llavina, Àngel Terrón, Josep Maria de Sagarra, Clementina Arderiu, Andreu Gomila, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, August Bover Font, Carles Camps, Carles Fages de Climent, Feliu Formosa, Francesc Parcerisas, Josep Sebastià Pons, J. V. Foix, Maria Rosa Font i Massot, Manuel Forcano, Maria Antònia Salvà, Marià Manent, Maria Josep Escrivà, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Miquel Costa i Llobera, Miquel Dolç Dolç, Miquel Martí i Pol, Narcís Comadira, Olga Xirinacs i Díaz, Pau Sais, Pere Suau, Rafael Catardi, Ramir Augé, Ramon Solsona i Sancho, Sebastià Alzamora, Tomàs Garcés, Vicent Andrés Estellés, Xavier Lloveras, Biel Mercadal, Damià Rotger, Francesc Florit, Guillem Benejam, Àlex Susanna</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F55" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
@@ -1870,21 +1870,21 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AATATATTAT</t>
+          <t>ATATATTTAT</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0010101101</t>
+          <t>0101011101</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Gabriel Ferrater, Jacint Verdaguer, Jaume Coll Mariné, Joan Maragall, Joan Margarit, Joan Oliver, J. V. Foix, Maria Josep Escrivà, Màrius Sampere, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Manuel Forcano, Miquel-Àngel Adrover</t>
+          <t>Blai Bonet, Gabriel Ferrater, Jaume Bofill, Josep Carner, Ponç Pons, Carles Riba, Carles Camps, Josep Sebastià Pons, J. V. Foix, Maria Àngels Anglada, Marià Manent, Maria Mercè Marçal, Miquel Martí i Pol, Vicent Andrés Estellés, Frederic Erdozaín</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F56" t="n">
         <v>15</v>
@@ -1896,24 +1896,24 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AATAATTATT</t>
+          <t>ATATATTAAT</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0010011011</t>
+          <t>0101011001</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Gabriel Ferrater, Gerard Vergés, Joan Margarit, Joan Vinyoli, Màrius Sampere, Salvador Oliva, Vicent Andrés Estellés, Blai Bonet</t>
+          <t>Blai Bonet, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Joan Valls, Jaume Pérez Montaner, Joan Amade, Joan Francesc Mira, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Salvat-Papasseit, Jordi Gebellí i Puig, Jordi Llavina, Josep Borrell, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Andreu Gomila, Àngel Fabregat, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, August Bover Font, Carles Riba, Bonaventura Ubach, Carles Cardó, Carme Guasch, Josep Maria Llompart, David Jou, Ester Xargay, Feliu Formosa, Josep Sebastià Pons, J. V. Foix, Llorenç Moyà, Llorenç Riber, Lluís Alpera, Maria Rosa Font i Massot, Manuel Forcano, Maria Antònia Salvà, Marià Manent, Marià Villangómez, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Miquel Costa i Llobera, Miquel Creus, Miquel Lladó, Miquel Martí i Pol, Narcís Comadira, Pau Sais, Pere Gimferrer, Pere Rovira, Pere Suau, Ramon Solsona i Sancho, Verdaguer i Santaló, Jacint, Sebastià Alzamora, Tomàs Garcés, Vicent Andrés Estellés, Joan Alcover, Gabriel de la S.T. Sampol, Bonaventura Gassol, Francesc Florit, Guillem Benejam, Joan Timoner, Magí Morera, Agustí Bartra</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="F57" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58">
@@ -1922,24 +1922,24 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>TAATATTAAT</t>
+          <t>AATTAATAAT</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>1001011001</t>
+          <t>0011001001</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Gabriel Ferrater, Joan Margarit, Joan Oliver, Miquel Martí i Pol, Vicent Andrés Estellés, Blai Bonet, Manuel Forcano</t>
+          <t>Blai Bonet, Joan Prat, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Isabel-Clara Simó, Joan Valls, Jaume Bofill, Jaume Coll Mariné, Jaume Pérez Montaner, Josep Carner, Joan Brossa, Joan Francesc Mira, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Joan Salvat-Papasseit, Joan Vinyoli, Joan-Elies Adell, Jordi Gebellí i Puig, Jordi Llavina, Jordi Pere Cerdà, Josep Borrell, Àngel Terrón, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Albert Balasch, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, Carles Riba, Bonaventura Ubach, Carles Camps, Carles Cardó, Carles Miralles, Carles Salvador, Josep Romeu i Figueras, Daniel Martínez, Josep Vallverdú, Francesc Parcerisas, Frederic Clascar, Josep Maria Sala-Valldaura, Josep Sebastià Pons, J. V. Foix, Llorenç Riber, Maria Rosa Font i Massot, Maria Àngels Anglada, Marià Manent, Maria Josep Escrivà, Maria Mercè Marçal, Màrius Sampere, Miquel Costa i Llobera, Miquel de Palol, Miquel Dolç Dolç, Miquel Martí i Pol, Narcís Comadira, Oriol Izquierdo, Pau Sais, Pere Prat, Pere Rovira, Pere Suau, Perejaume, Ramir Augé, Gustau Juan, Sebastià Alzamora, Segimon Serrallonga, Tomàs Garcés, Vicenç Llorca, Francesc Xavier Casp, Xavier Lloveras, Albert Mestres, Joan Alcover, Vicent Alonso, Joan Teixidor, Francesc Florit, Joan Francesc López, Joan Timoner, Magí Morera</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="F58" t="n">
-        <v>7</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59">
@@ -1948,24 +1948,24 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ATATATTTAT</t>
+          <t>ATATAATATT</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0101011101</t>
+          <t>0101001011</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Gabriel Ferrater, Jaume Bofill, J. V. Foix, Maria Mercè Marçal, Marià Manent, Miquel Martí i Pol, Vicent Andrés Estellés, Blai Bonet</t>
+          <t>Blai Bonet, Carles Rebassa, Xulio Ricardo Trigo, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Gerard Vergés, Helena Rufat, Isabel-Clara Simó, Joan Valls, Jaume Bofill, Jaume C. Pons Alorda, Josep Carner, Joan Brossa, Joan Francesc Mira, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Salvat-Papasseit, Bartomeu Rosselló-Pòrcel, Joan Vinyoli, Jordi Gebellí i Puig, Jordi Llavina, Jordi Sarsanedas i Vives, Josep Borrell, Àngel Terrón, Josep Iglésies, Josep Maria de Sagarra, Josep Maria López-Picó, Clementina Arderiu, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, Arnau Pons, August Bover Font, Biel Mesquida, Carles Riba, Bonaventura Ubach, Carles Camps, Carles Cardó, Carles Duarte, Carles Grandó, Feliu Formosa, Francesc Parcerisas, Josep Sebastià Pons, Llorenç Riber, Lluís Alpera, Maria Àngels Anglada, Marià Manent, Maria Josep Escrivà, Maria Mercè Marçal, Mariàngela Vilallonga, Màrius Sampere, Marta Pessarrodona, Miquel Bezares, Miquel Costa i Llobera, Miquel Forteza, Miquel Martí i Pol, Miquel Àngel Adrover, Narcís Comadira, Oriol Izquierdo, Pau Sais, Pere Gimferrer, Rafael Catardi, Ramir Augé, Ramon Miquel, Rosa Leveroni, Gustau Juan, Verdaguer i Santaló, Jacint, Sebastià Alzamora, Vicent Andrés Estellés, Francesc Xavier Casp, Anna Gual, Biel Mercadal, Albert Mestres, Damià Rotger, Bonaventura Gassol, Vicent Alonso, Joan Teixidor, Guillem Benejam, Piera i Rubió, Josep, Magí Morera, Agustí Bartra, Àlex Susanna</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>9</v>
+        <v>259</v>
       </c>
       <c r="F59" t="n">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60">
@@ -1974,24 +1974,24 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ATATATAAAT</t>
+          <t>TATTAATTAT</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0101010001</t>
+          <t>1011001101</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Jaume Bofill, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Maria Mercè Marçal, Marià Manent, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Màrius Torres, Narcís Comadira, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Llorenç Moyà, Bernat Cifre, Blai Bonet, Joan-Manuel Pérez, Manuel Forcano, Miquel-Àngel Llauger, Miquel-Àngel Adrover</t>
+          <t>Blai Bonet, Joan Margarit, Gerard Vergés, Joan Valls, Josep Carner, Joan Francesc Mira, Joan Oliver, Josep Maria de Sagarra, Alfred Badia, Arnau Barios, Carles Cardó, Miquel Costa i Llobera, Narcís Comadira, Pere Suau</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="F60" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
@@ -2000,24 +2000,24 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>TAATAATATT</t>
+          <t>AATTAATATT</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>1001001011</t>
+          <t>0011001011</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Gabriel Ferrater, Gerard Vergés, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Josep Piera, Maria Mercè Marçal, Marià Manent, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Narcís Comadira, Salvador Espriu, Vicent Andrés Estellés, Armand Obiols, Blai Bonet, Pere Gimferrer, Manuel Forcano</t>
+          <t>Blai Bonet, Joan Prat, Àngel Guimerà, Joan Francesc Mira, Àngel Fabregat, Arnau Barios, Ester Xargay, Llorenç Moyà, Maria Josep Escrivà, Màrius Torres, Miquel Martí i Pol, Pere Gimferrer, Sebastià Alzamora, Albert Mestres</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="F61" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62">
@@ -2026,24 +2026,24 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ATTAATAATT</t>
+          <t>ATAATAAATT</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0110010011</t>
+          <t>0100100011</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Gabriel Ferrater, Gerard Vergés, Joan Margarit, Joan Oliver, Miquel Martí i Pol, Salvador Oliva, Vicent Andrés Estellés, Llorenç Moyà, Blai Bonet, Àngel Terrón, Vicenç Llorca</t>
+          <t>Blai Bonet, Joan Oliver, Àngel Terrón, Miquel Martí i Pol, Pere Rovira</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F62" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -2052,24 +2052,24 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ATAAATAATT</t>
+          <t>AATAAATATT</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0100010011</t>
+          <t>0010001011</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Gabriel Ferrater, Jacint Verdaguer, Joan Alcover, Joan Oliver, Narcís Comadira, Vicent Andrés Estellés, Bernat Cifre, Blai Bonet</t>
+          <t>Blai Bonet, Joan Margarit, Joan Vinyoli</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -2078,24 +2078,24 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AATATATATT</t>
+          <t>AATTAAATAT</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0010101011</t>
+          <t>0011000101</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Gabriel Ferrater, Jaume Bofill, Joan Alcover, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, J. V. Foix, Miquel Costa, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Narcís Comadira, Salvador Espriu, Salvador Oliva, Vicent Andrés Estellés, Llorenç Moyà, Blai Bonet, Joan-Manuel Pérez, Anna Gual, Miquel Bezares, Manuel Forcano, Miquel-Àngel Llauger</t>
+          <t>Blai Bonet, Gabriel Ferrater, Josep Carner, Joan Francesc Mira, Salvador Espriu, Jordi Llavina, Àngel Terrón, Josep Iglésies, Josep Maria de Sagarra, Alfred Badia, Arnau Barios, Carles Cardó, Llorenç Riber, Màrius Sampere, Miquel Costa i Llobera, Miquel Dolç Dolç, Miquel Martí i Pol, Verdaguer i Santaló, Jacint, Vicenç Llorca</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="F64" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
@@ -2104,24 +2104,24 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TATATAATTT</t>
+          <t>ATTATTATAT</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1010100111</t>
+          <t>0110110101</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Gabriel Ferrater, Joan Margarit, Joan Oliver, Miquel Martí i Pol, Tomàs Garcés</t>
+          <t>Blai Bonet, Carles Rebassa, Àngel Guimerà, Josep Maria de Sagarra, Albert Balasch, Salvador Oliva i Llinàs, Llorenç Riber, Maria Mercè Marçal, Miquel Costa i Llobera</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66">
@@ -2130,24 +2130,24 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ATATATTAAT</t>
+          <t>TAATATTAAT</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0101011001</t>
+          <t>1001011001</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Gabriel Ferrater, Gerard Vergés, Jacint Verdaguer, Joan Margarit, Joan Oliver, Jordi Llavina, J. V. Foix, Maria Mercè Marçal, Marià Manent, Miquel Desclot, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Narcís Comadira, Salvador Espriu, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Llorenç Moyà, Gabriel de la S.T. Sampol, Blai Bonet, Joan Salvat-Papasseit, Àngel Terrón, Manuel Forcano</t>
+          <t>Blai Bonet, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Joan Francesc Mira, Joan Oliver, Josep Borrell, Josep Maria de Sagarra, Salvador Oliva i Llinàs, Bartomeu Fiol, Carles Riba, Carles Cardó, Carles Duarte, Lluís Freixas, Manuel Forcano, Miquel Costa i Llobera, Miquel Martí i Pol, Olga Xirinacs i Díaz, Txema Martínez, Vicent Andrés Estellés, Bonaventura Gassol, Joan Teixidor, Agustí Bartra</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="F66" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67">
@@ -2156,24 +2156,24 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TATTATAATT</t>
+          <t>AATTATATTT</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1011010011</t>
+          <t>0011010111</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Gabriel Ferrater, Gerard Vergés, Josep Piera, Blai Bonet, Joan-Manuel Pérez</t>
+          <t>Blai Bonet, Joan Oliver, Ramir Augé, Albert Mestres</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -2182,24 +2182,24 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ATAATATTAT</t>
+          <t>TATTAATATT</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>0100101101</t>
+          <t>1011001011</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Gabriel Ferrater, Jacint Verdaguer, Jaume Bofill, Joan Maragall, Joan Margarit, Joan Oliver, Maria Mercè Marçal, Miquel Lladó, Miquel Martí i Pol, Salvador Espriu, Tomàs Garcés, Vicent Andrés Estellés, Joan-Manuel Pérez, Miquel Bezares, Manuel Forcano</t>
+          <t>Blai Bonet, Joan Oliver, Àngel Terrón, Ponç Pons, Carles Cardó, Miquel Costa i Llobera, Pau Sais, Txema Martínez, Biel Mercadal</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F68" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69">
@@ -2208,24 +2208,24 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TAATAATTAT</t>
+          <t>AATTAATTAT</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>1001001101</t>
+          <t>0011001101</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Gabriel Ferrater, Gerard Vergés, Jaume Bofill, Joan Alcover, Joan Maragall, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Maria Mercè Marçal, Marià Manent, Miquel Costa, Miquel Martí i Pol, Màrius Sampere, Narcís Comadira, Salvador Oliva, Tomàs Garcés, Vicent Andrés Estellés, Llorenç Moyà, Blai Bonet, Guillem Cabrer, Joan Salvat-Papasseit, Àngel Terrón, Miquel Bezares, Manuel Forcano, Miquel-Àngel Llauger</t>
+          <t>Blai Bonet, Joan Margarit, Àngel Guimerà, Isabel-Clara Simó, Joan Francesc Mira, Joan Oliver, Joan Pons Marquès, Joan Salvat-Papasseit, Joan Vinyoli, Jordi Cornudella, Jordi Llavina, Josep Maria de Sagarra, Biel Mesquida, Feliu Formosa, Llorenç Moyà, Llorenç Riber, Maria Antònia Salvà, Marià Manent, Maria Mercè Marçal, Miquel Costa i Llobera, Miquel Dolç Dolç, Miquel Martí i Pol, Narcís Comadira, Pere Gimferrer, Perejaume, Salvador Sunyer, Sebastià Alzamora, Bonaventura Gassol, Guillem Benejam</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>129</v>
+        <v>43</v>
       </c>
       <c r="F69" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="70">
@@ -2234,24 +2234,24 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TATTAATAAT</t>
+          <t>AATTTAATAT</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1011001001</t>
+          <t>0011100101</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Gabriel Ferrater, Jaume Bofill, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, J. V. Foix, Maria Josep Escrivà, Maria Mercè Marçal, Marià Manent, Miquel Martí i Pol, Màrius Sampere, Narcís Comadira, Salvador Espriu, Tomàs Garcés, Vicent Andrés Estellés, Armand Obiols, Blai Bonet, Joan Salvat-Papasseit, Àngel Terrón, Manuel Forcano</t>
+          <t>Blai Bonet, Isabel-Clara Simó, Francesc Parcerisas, Lluís Alpera, Narcís Comadira, Vicent Andrés Estellés</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="F70" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -2260,24 +2260,24 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>AATTAATTAT</t>
+          <t>TAAATATAAT</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>0011001101</t>
+          <t>1000101001</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Gabriel Ferrater, Joan Margarit, Joan Oliver, Joan Vinyoli, Jordi Llavina, Maria Mercè Marçal, Marià Manent, Miquel Martí i Pol, Màrius Sampere, Narcís Comadira, Salvador Espriu, Llorenç Moyà, Blai Bonet, Joan Salvat-Papasseit, Pere Gimferrer, Vicenç Llorca</t>
+          <t>Blai Bonet, Joan Valls, Josep Carner, Joan Amade, Joan Fuster, Joan Manuel Pérez i Pinya, Bonaventura Ubach, Carles Cardó, Enric Sòria, Feliu Formosa, Marta Pessarrodona, Pere Suau, Perejaume, Sebastià Alzamora, Tomàs Garcés, Vicent Andrés Estellés, Joan Alcover, Joan Timoner, Piera i Rubió, Josep, Magí Morera, Àlex Susanna</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F71" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72">
@@ -2286,24 +2286,24 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ATTAAATAAT</t>
+          <t>TAATTATAAT</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0110001001</t>
+          <t>1001101001</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Gabriel Ferrater, Joan Oliver, Marià Manent, Narcís Comadira, Blai Bonet</t>
+          <t>Blai Bonet, Joan Margarit, Jaume C. Pons Alorda, Joan Brossa, Joan Francesc Mira, Salvador Espriu, Joan Oliver, Bartomeu Rosselló-Pòrcel, Josep Borrell, Àngel Terrón, Clementina Arderiu, Arnau Barios, Biel Mesquida, Carles Riba, Feliu Formosa, Josep Vallverdú, Francesc Parcerisas, Josep Sebastià Pons, Maria Antònia Salvà, Màrius Sampere, Miquel Costa i Llobera, Narcís Comadira, Verdaguer i Santaló, Jacint, Sebastià Alzamora, Vicent Andrés Estellés</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F72" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
@@ -2312,24 +2312,24 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>TATTAATTAT</t>
+          <t>AAATAATAAT</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>1011001101</t>
+          <t>0001001001</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Gerard Vergés, Joan Margarit, Joan Oliver, Marià Manent, Narcís Comadira, Salvador Oliva, Blai Bonet</t>
+          <t>Blai Bonet, Joan Margarit, Àngel Guimerà, Gerard Vergés, Josep Carner, Joan Francesc Mira, Joan Oliver, Joan Pons Marquès, Clementina Arderiu, Andreu Gomila, Salvador Oliva i Llinàs, Carles Riba, Carles Camps, Carles Cardó, Josep Romeu i Figueras, Daniel Martínez, David Jou, Lluís Freixas, Marià Manent, Mariàngela Vilallonga, Màrius Sampere, Màrius Torres, Miquel de Palol, Miquel Martí i Pol, Narcís Comadira, Perejaume, Ramir Augé, Rosa Leveroni, Vicent Andrés Estellés, Anna Gual, Joan Alcover, Damià Rotger, David Vidal, Francesc Florit</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F73" t="n">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
@@ -2338,24 +2338,24 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ATTAATAAAT</t>
+          <t>AATAAATAAT</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>0110010001</t>
+          <t>0010001001</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Gerard Vergés, Joan Oliver, Josep Carner, Miquel Martí i Pol, Màrius Sampere, Narcís Comadira, Vicent Andrés Estellés</t>
+          <t>Blai Bonet, Carles Rebassa, Enric Casasses, Joan Margarit, Gabriel Ferrater, Àngel Guimerà, Joan Valls, Jaume C. Pons Alorda, Josep Carner, Joan Francesc Mira, Joan Maragall, Joan Oliver, Joan Pons Marquès, Bartomeu Rosselló-Pòrcel, Josep Borrell, Salvador Oliva i Llinàs, Arnau Barios, August Bover Font, Biel Mesquida, Carles Riba, Bonaventura Ubach, Carles Camps, Carles Salvador, David Jou, Feliu Formosa, Francesc Parcerisas, J. V. Foix, Maria Antònia Salvà, Marià Manent, Maria Josep Escrivà, Màrius Sampere, Marta Pessarrodona, Miquel Bezares, Miquel Dolç Dolç, Miquel Lladó, Miquel Martí i Pol, Narcís Comadira, Olga Xirinacs i Díaz, Pau Sais, Pere Rovira, Perejaume, Ramir Augé, Ramon Miquel, Ramon Solsona i Sancho, Sebastià Alzamora, Tomàs Garcés, Txema Martínez, Vicent Andrés Estellés, Damià Rotger, Vicent Alonso</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F74" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75">
@@ -2364,24 +2364,24 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ATTTAATTAT</t>
+          <t>AATAATATTT</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>0111001101</t>
+          <t>0010010111</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Gerard Vergés, Jordi Llavina, J. V. Foix, Miquel Martí i Pol, Narcís Comadira, Vicent Andrés Estellés</t>
+          <t>Blai Bonet, Xulio Ricardo Trigo, Joan Margarit, Àngel Guimerà, Joan Valls, Joan Francesc Mira, Joan Oliver, Jordi Llavina, Bonaventura Ubach, Miquel Àngel Llauger, Pau Sais, Verdaguer i Santaló, Jacint, Sebastià Alzamora, Vicent Andrés Estellés, Damià Rotger</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76">
@@ -2390,24 +2390,24 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>AATTATAATT</t>
+          <t>ATATAAAATT</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0011010011</t>
+          <t>0101000011</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Gerard Vergés, Joan Margarit, Maria Mercè Marçal, Miquel Lladó, Salvador Oliva, Vicent Andrés Estellés, Llorenç Moyà, Blai Bonet, Manuel Forcano</t>
+          <t>Blai Bonet, Jordi Llavina, Miquel Costa i Llobera, Perejaume</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F76" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -2416,24 +2416,24 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ATTATATATT</t>
+          <t>ATAATTAATT</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>0110101011</t>
+          <t>0100110011</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Gerard Vergés, Joan Oliver, Marià Manent, Narcís Comadira, Vicent Andrés Estellés, Blai Bonet</t>
+          <t>Blai Bonet, Josep Carner, Josep Maria de Sagarra, Carles Riba, Bonaventura Ubach, Llorenç Riber, Màrius Sampere, Miquel Àngel Adrover, Pau Sais, Ramon Solsona i Sancho, Vicent Andrés Estellés, Albert Mestres</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F77" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78">
@@ -2442,24 +2442,24 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ATTATTTAAT</t>
+          <t>ATTTATATAT</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>0110111001</t>
+          <t>0111010101</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Gerard Vergés</t>
+          <t>Blai Bonet, Carles Rebassa, Joan Margarit, Gerard Vergés, Josep Carner, Joan Francesc Mira, Joan Oliver, Jordi Gebellí i Puig, Josep Iglésies, Josep Lleonart, Josep Maria de Sagarra, Salvador Oliva i Llinàs, Arnau Barios, Biel Mesquida, Carles Cardó, Carles Riera, Josep Maria Sala-Valldaura, Llorenç Riber, Marià Manent, Marià Villangómez, Màrius Sampere, Miquel Costa i Llobera, Miquel Lladó, Miquel Martí i Pol, Miquel Àngel Llauger, Narcís Comadira, Rafael Catardi, Verdaguer i Santaló, Jacint, Tomàs Garcés, Txema Martínez, Vicenç Llorca, Vicent Andrés Estellés, Biel Mercadal, Albert Mestres, Joan Alcover, Gabriel de la S.T. Sampol, Magí Morera, Àlex Susanna</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ATTTTTATAT</t>
+          <t>AAATAATTAT</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>0111110101</t>
+          <t>0001001101</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Gerard Vergés</t>
+          <t>Blai Bonet, Francesc Parcerisas, Maria Mercè Marçal</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
@@ -2494,24 +2494,24 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>TAATATAAAT</t>
+          <t>ATTATATTAT</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1001010001</t>
+          <t>0110101101</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Gerard Vergés, Joan Margarit, Joan Oliver, Blai Bonet, Guillem Cabrer, Albert Balasch, Manuel Forcano</t>
+          <t>Blai Bonet, Carles Rebassa, Àngel Guimerà, Jaume C. Pons Alorda, Joan Francesc Mira, Joan Manuel Pérez i Pinya, Josep Iglésies, Josep Maria Sala-Valldaura, Marià Manent, Màrius Sampere, Pau Sais, Vicent Andrés Estellés, Biel Mercadal</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F80" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -2520,24 +2520,24 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>TAATAAATAT</t>
+          <t>AATTAATTTT</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1001000101</t>
+          <t>0011001111</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Gerard Vergés, Joan Margarit, Maria Mercè Marçal, Marià Manent, Miquel Costa, Miquel Lladó, Narcís Comadira, Vicent Andrés Estellés, Llorenç Moyà, Blai Bonet, Albert Balasch, Anna Gual</t>
+          <t>Blai Bonet, Miquel Lladó</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -2546,24 +2546,24 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>TATAATAAAT</t>
+          <t>AAATATAAAT</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1010010001</t>
+          <t>0001010001</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Gerard Vergés, Joan Margarit, Joan Oliver, Miquel Lladó, Salvador Oliva, Vicent Andrés Estellés, Àngel Terrón, Anna Gual, Pere Gimferrer</t>
+          <t>Blai Bonet, Joan Francesc Mira, Joan-Elies Adell</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F82" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
@@ -2572,24 +2572,24 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>TAAATAATAT</t>
+          <t>TAATATAAAT</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>1000100101</t>
+          <t>1001010001</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Gerard Vergés, Jaume Bofill, Joan Oliver, Vicent Andrés Estellés, Llorenç Moyà</t>
+          <t>Blai Bonet, Joan Margarit, Gerard Vergés, Guillem Cabrer, Joan Valls, Joan Francesc Mira, Joan Oliver, Joan Pons Marquès, Josep Maria de Sagarra, Albert Balasch, Àngel Fabregat, Salvador Oliva i Llinàs, Arnau Barios, Carles Cardó, Josep Romeu i Figueras, Llorenç Riber, Manuel Forcano, Miquel de Palol, Pau Sais, Pere Prat, Xavier Lloveras, Damià Rotger, Francesc Florit</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="F83" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84">
@@ -2598,24 +2598,24 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>TAATAAATTT</t>
+          <t>AATTATAATT</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1001000111</t>
+          <t>0011010011</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Jacint Verdaguer</t>
+          <t>Blai Bonet, Xulio Ricardo Trigo, Joan Margarit, Gerard Vergés, Josep Maria de Sagarra, Arnau Barios, Carles Riba, Carles Camps, Carles Cardó, Feliu Formosa, Josep Sebastià Pons, Llorenç Moyà, Manuel Forcano, Vicent Andrés Estellés, Biel Mercadal, Gabriel de la S.T. Sampol</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85">
@@ -2624,24 +2624,24 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ATTATAATAT</t>
+          <t>ATTAAATAAT</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>0110100101</t>
+          <t>0110001001</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Jacint Verdaguer, Joan Margarit, Joan Oliver, Joan Vinyoli, J. V. Foix, Marià Manent, Miquel Costa, Miquel Lladó, Màrius Sampere, Màrius Torres, Narcís Comadira, Salvador Oliva, Vicent Andrés Estellés, Blai Bonet</t>
+          <t>Blai Bonet, Gabriel Ferrater, Joan Oliver, Andreu Gomila, Carles Cardó, Marià Manent, Narcís Comadira, Pau Sais, Ramir Augé</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F85" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86">
@@ -2650,24 +2650,24 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>TAATTTATAT</t>
+          <t>ATATTATATT</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>1001110101</t>
+          <t>0101101011</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Jacint Verdaguer, Joan Margarit, Joan Oliver</t>
+          <t>Carles Rebassa, Josep Carner, Joan Oliver, Joan Vinyoli, Josep Iglésies, Andreu Gomila, Salvador Oliva i Llinàs, Arnau Barios, Carles Riba, Carles Cardó, Marià Manent, Narcís Comadira, Vicent Andrés Estellés, Agustí Bartra</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -2676,24 +2676,24 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>TATAATATTT</t>
+          <t>ATTAATTTAT</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>1010010111</t>
+          <t>0110011101</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Jacint Verdaguer, Joan Margarit, Maria Mercè Marçal, Miquel Lladó, Narcís Comadira, Vicent Andrés Estellés, Llorenç Moyà</t>
+          <t>Carles Rebassa</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2702,24 +2702,24 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>TATATATTTT</t>
+          <t>ATTAATTAAT</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>1010101111</t>
+          <t>0110011001</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Jacint Verdaguer</t>
+          <t>Carles Rebassa, Joan Margarit, Gabriel Ferrater, Joan Valls, Andreu Gomila, Salvador Oliva i Llinàs, Vicent Alonso, Francesc Florit</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89">
@@ -2728,24 +2728,24 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>AATTAAATAT</t>
+          <t>AATATATTAT</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>0011000101</t>
+          <t>0010101101</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Jaume Bofill, Joan Vinyoli, Miquel Martí i Pol, Àngel Terrón</t>
+          <t>Xulio Ricardo Trigo, Joan Margarit, Gabriel Ferrater, Isabel-Clara Simó, Jaume Agelet, Jaume Coll Mariné, Joan Brossa, Joan Francesc Mira, Joan Maragall, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Jordi Gebellí i Puig, Àngel Terrón, Josep Iglésies, Josep Maria de Sagarra, Josep Maria López-Picó, Clementina Arderiu, Antoni Puigvert, Salvador Oliva i Llinàs, Arnau Barios, Carles Riba, Bonaventura Ubach, Carles Cardó, Carles Miralles, Daniel Martínez, David Jou, Josep Vallverdú, Francesc Parcerisas, J. V. Foix, Manuel Forcano, Maria Antònia Salvà, Maria Josep Escrivà, Mariàngela Vilallonga, Màrius Sampere, Miquel Costa i Llobera, Miquel de Palol, Miquel Dolç Dolç, Miquel Àngel Adrover, Olga Xirinacs i Díaz, Pau Sais, Pere Rovira, Pere Suau, Ramir Augé, Ramon Miquel, Rosa Leveroni, Verdaguer i Santaló, Jacint, Tomàs Garcés, Txema Martínez, Vicent Andrés Estellés, Damià Rotger, Bonaventura Gassol, Vicent Alonso, Francesc Florit</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="F89" t="n">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90">
@@ -2754,24 +2754,24 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>TATAATTAAT</t>
+          <t>TAAATAATAT</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>1010011001</t>
+          <t>1000100101</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Jaume Bofill, Joan Maragall, Joan Margarit, Jordi Llavina, Miquel Desclot, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Salvador Espriu, Salvador Oliva, Vicent Andrés Estellés, Llorenç Moyà, Blai Bonet, Joan Salvat-Papasseit, Manuel Forcano</t>
+          <t>Xulio Ricardo Trigo, Gerard Vergés, Jaume Bofill, Josep Carner, Joan Francesc Mira, Joan Oliver, Joan-Elies Adell, Salvador Oliva i Llinàs, Arnau Barios, Carles Riba, Bonaventura Ubach, Carles Cardó, Carles Grandó, Daniel Martínez, Feliu Formosa, Francesc Parcerisas, Josep Sebastià Pons, Llorenç Moyà, Màrius Sampere, Ramon Miquel, Sebastià Alzamora, Vicent Andrés Estellés</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F90" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91">
@@ -2780,21 +2780,21 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>AATATTAATT</t>
+          <t>AATATATTTT</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>0010110011</t>
+          <t>0010101111</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Jaume Bofill, Joan Margarit, Miquel Martí i Pol, Màrius Sampere, Vicent Andrés Estellés</t>
+          <t>Enric Casasses, Jaume Coll Mariné, Joan Manuel Pérez i Pinya, Carles Salvador, Joan Teixidor</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F91" t="n">
         <v>5</v>
@@ -2806,24 +2806,24 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>AATATATTTT</t>
+          <t>ATATTTATAT</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>0010101111</t>
+          <t>0101110101</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Jaume Coll Mariné, Joan-Manuel Pérez</t>
+          <t>Enric Casasses, Joan Amade, Joan Oliver, Josep Maria de Sagarra, Josep Sebastià Pons, Marià Villangómez, Miquel Costa i Llobera, Ramir Augé, Vicent Andrés Estellés</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F92" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93">
@@ -2832,24 +2832,24 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TAAATATAAT</t>
+          <t>ATAATATTTT</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>1000101001</t>
+          <t>0100101111</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Joan Alcover, Josep Piera, Tomàs Garcés, Vicent Andrés Estellés, Blai Bonet, Joan-Manuel Pérez</t>
+          <t>Enric Casasses, Joan Francesc Mira, Carles Riba, Ricard Permanyer</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F93" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -2858,24 +2858,24 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ATAATTAAAT</t>
+          <t>ATTTAAATAT</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>0100110001</t>
+          <t>0111000101</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Joan Margarit, Vicent Andrés Estellés, Miquel Bezares</t>
+          <t>Enric Casasses, Jordi Llavina, Josep Maria de Sagarra, Carles Camps, Maria Àngels Anglada, Narcís Comadira, Segimon Serrallonga</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95">
@@ -2884,24 +2884,24 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TATAATTATT</t>
+          <t>AATTTATAAT</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1010011011</t>
+          <t>0011101001</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Joan Margarit, Miquel Lladó, Salvador Oliva, Vicent Andrés Estellés</t>
+          <t>Joan Margarit, Jaume C. Pons Alorda, Arnau Pons, Carles Riba, Josep Sebastià Pons, Ramon Solsona i Sancho, Vicent Andrés Estellés</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
@@ -2910,24 +2910,24 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>AATATAAATT</t>
+          <t>ATTAATAAAT</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>0010100011</t>
+          <t>0110010001</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Joan Margarit, Joan Oliver</t>
+          <t>Joan Margarit, Àngel Guimerà, Gerard Vergés, Josep Carner, Joan Brossa, Joan Francesc Mira, Joan Fuster, Joan Oliver, Josep Maria de Sagarra, Arnau Barios, Màrius Sampere, Miquel Costa i Llobera, Miquel Martí i Pol, Narcís Comadira, Pau Sais, Rafael Catardi, Ramon Miquel, Vicent Andrés Estellés</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="97">
@@ -2936,24 +2936,24 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ATATTTATTT</t>
+          <t>ATAATTAAAT</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>0101110111</t>
+          <t>0100110001</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Joan Margarit</t>
+          <t>Joan Margarit, Lluís Alpera, Miquel Bezares, Txema Martínez, Vicent Andrés Estellés, Damià Rotger</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98">
@@ -2962,24 +2962,24 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>AAATAATATT</t>
+          <t>TATAATATTT</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>0001001011</t>
+          <t>1010010111</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Joan Margarit, Miquel Martí i Pol</t>
+          <t>Joan Margarit, Bartomeu Rosselló-Pòrcel, Carles Riba, Bonaventura Ubach, Llorenç Moyà, Marià Villangómez, Maria Mercè Marçal, Miquel Lladó, Narcís Comadira, Pau Sais, Ramon Miquel, Vicent Andrés Estellés</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F98" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
@@ -2988,24 +2988,24 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>AATAATTTAT</t>
+          <t>TATTAAATAT</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>0010011101</t>
+          <t>1011000101</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Joan Margarit</t>
+          <t>Joan Margarit, Joan Francesc Mira, Josep Maria de Sagarra, Salvador Oliva i Llinàs, Carles Riba, Marià Manent, Txema Martínez</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100">
@@ -3014,24 +3014,24 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>TATATAAAAT</t>
+          <t>TATAATTATT</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>1010100001</t>
+          <t>1010011011</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Joan Margarit, Joan Oliver</t>
+          <t>Joan Margarit, Ponç Pons, Miquel Costa i Llobera, Miquel Lladó, Vicent Andrés Estellés</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -3040,24 +3040,24 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>TATTAATATT</t>
+          <t>AATATAAATT</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>1011001011</t>
+          <t>0010100011</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Joan Oliver, Blai Bonet</t>
+          <t>Joan Margarit, Joan Oliver, Bonaventura Ubach, Carles Cardó, Perejaume</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102">
@@ -3066,24 +3066,24 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>TATAAATAAT</t>
+          <t>TAATTAATAT</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>1010001001</t>
+          <t>1001100101</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Joan Oliver, J. V. Foix, Maria Mercè Marçal, Marià Manent, Miquel Lladó, Miquel Martí i Pol, Màrius Sampere, Narcís Comadira, Salvador Espriu, Vicent Andrés Estellés, Manuel Forcano, Vicenç Llorca</t>
+          <t>Joan Margarit, Helena Rufat, Jaume Bofill, Josep Carner, Joan Francesc Mira, Salvador Espriu, Joan Oliver, Jordi Llavina, Jordi Sarsanedas i Vives, Josep Borrell, Josep Lleonart, Albert Balasch, Bartomeu Fiol, Bonaventura Ubach, Josep Maria Llompart, Josep Vallverdú, Llorenç Riber, Marià Manent, Màrius Torres, Miquel Costa i Llobera, Miquel Martí i Pol, Narcís Comadira, Ramir Augé, Sebastià Alzamora, Vicenç Llorca, Vicent Andrés Estellés, Joan Teixidor, Piera i Rubió, Josep</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F102" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103">
@@ -3092,24 +3092,24 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ATTTATAATT</t>
+          <t>ATATTATAAT</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>0111010011</t>
+          <t>0101101001</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Joan Oliver, Miquel Martí i Pol, Vicent Andrés Estellés</t>
+          <t>Joan Margarit, Josep Carner, Joan Francesc Mira, Joan Maragall, Joan Oliver, Joan Salvat-Papasseit, Joan-Lluís Lluís, Albert Balasch, Ponç Pons, Salvador Oliva i Llinàs, August Bover Font, Bartomeu Fiol, Biel Mesquida, Carles Riba, Carles Cardó, Carles Grandó, Enric Sòria, Feliu Formosa, Francesc Parcerisas, Josep Maria Sala-Valldaura, Josep Sebastià Pons, Lluís Alpera, Manuel Forcano, Marià Villangómez, Màrius Torres, Miquel Martí i Pol, Narcís Comadira, Perejaume, Ramir Augé, Verdaguer i Santaló, Jacint, Vicent Andrés Estellés, Joan Alcover</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="F103" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104">
@@ -3118,24 +3118,24 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>TATATAAATT</t>
+          <t>AATAATTTAT</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1010100011</t>
+          <t>0010011101</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Joan Oliver</t>
+          <t>Joan Margarit, Carles Grandó, Francesc Florit, Magí Morera</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F104" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
@@ -3144,24 +3144,24 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ATTAATTATT</t>
+          <t>TAATTTATAT</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>0110011011</t>
+          <t>1001110101</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Joan Oliver, Màrius Torres</t>
+          <t>Joan Margarit, Joan Oliver, Verdaguer i Santaló, Jacint</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F105" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
@@ -3170,24 +3170,24 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ATAATAAATT</t>
+          <t>TATATAAAAT</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>0100100011</t>
+          <t>1010100001</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Joan Oliver, Miquel Martí i Pol, Blai Bonet</t>
+          <t>Joan Margarit, Jaume Pérez Montaner, Joan Oliver, Josep Lleonart</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F106" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
@@ -3196,24 +3196,24 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ATATTTATAT</t>
+          <t>AATATTAATT</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>0101110101</t>
+          <t>0010110011</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Joan Oliver, Vicent Andrés Estellés</t>
+          <t>Joan Margarit, Jaume Bofill, Jaume C. Pons Alorda, Josep Vallverdú, Màrius Sampere, Miquel Martí i Pol, Vicent Andrés Estellés</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F107" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
@@ -3222,24 +3222,24 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ATAATAAAAT</t>
+          <t>TATATAATTT</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>0100100001</t>
+          <t>1010100111</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Joan Oliver</t>
+          <t>Joan Margarit, Gabriel Ferrater, Joan Oliver, Joan-Elies Adell, Miquel Martí i Pol, Pere Rovira, Tomàs Garcés</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F108" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109">
@@ -3248,24 +3248,24 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>AATATTAAAT</t>
+          <t>ATAAATATTT</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>0010110001</t>
+          <t>0100010111</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Joan Oliver</t>
+          <t>Joan Margarit, Josep Iglésies, Miquel Martí i Pol</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
@@ -3274,24 +3274,24 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>AATAATATTT</t>
+          <t>AATAATTATT</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>0010010111</t>
+          <t>0010011011</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Joan Oliver, Jordi Llavina, Vicent Andrés Estellés, Blai Bonet, Miquel-Àngel Llauger</t>
+          <t>Gabriel Ferrater, Gerard Vergés, Isabel-Clara Simó, Joan Francesc Mira, Salvador Oliva i Llinàs, Màrius Sampere, Verdaguer i Santaló, Jacint, Vicent Andrés Estellés</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F110" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111">
@@ -3300,24 +3300,24 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>AATATTTATT</t>
+          <t>TATAAATAAT</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>0010111011</t>
+          <t>1010001001</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Joan Oliver</t>
+          <t>Àngel Guimerà, Joan Valls, Jaume C. Pons Alorda, Joan Francesc Mira, Salvador Espriu, Joan Oliver, Joan Pons Marquès, Josep Maria de Sagarra, Bartomeu Fiol, Biel Mesquida, Bonaventura Ubach, Carles Cardó, Josep Romeu i Figueras, Josep Vallverdú, J. V. Foix, Manuel Forcano, Marià Manent, Maria Mercè Marçal, Màrius Sampere, Miquel Costa i Llobera, Miquel Lladó, Miquel Martí i Pol, Narcís Comadira, Pau Sais, Pere Suau, Vicenç Llorca, Vicent Andrés Estellés, Damià Rotger, David Vidal, Vicent Alonso, Pere Gomila</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="F111" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112">
@@ -3326,24 +3326,24 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ATTTAATATT</t>
+          <t>ATTTAATTAT</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>0111001011</t>
+          <t>0111001101</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Joan Oliver</t>
+          <t>Gerard Vergés, Josep Carner, Alfred Badia, J. V. Foix, Llorenç Riber, Miquel Costa i Llobera, Miquel Martí i Pol, Vicent Andrés Estellés, Joan Francesc López</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F112" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113">
@@ -3352,17 +3352,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ATTTTATAAT</t>
+          <t>ATTATTTAAT</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>0111101001</t>
+          <t>0110111001</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Joan Vinyoli</t>
+          <t>Gerard Vergés</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -3378,24 +3378,24 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ATTAATATTT</t>
+          <t>ATTTTTATAT</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>0110010111</t>
+          <t>0111110101</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Joan Vinyoli, Maria Mercè Marçal, Salvador Oliva</t>
+          <t>Gerard Vergés</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3404,24 +3404,24 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ATAATAATTT</t>
+          <t>TAAATTATAT</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>0100100111</t>
+          <t>1000110101</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Joan Vinyoli, Màrius Sampere, Vicent Andrés Estellés</t>
+          <t>Guillem Cabrer, Ramon Solsona i Sancho, Vicent Andrés Estellés, Agustí Bartra</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116">
@@ -3430,24 +3430,24 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ATATTTTAAT</t>
+          <t>TAATTATTAT</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>0101111001</t>
+          <t>1001101101</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Joan Vinyoli</t>
+          <t>Isabel-Clara Simó, Perejaume, Piera i Rubió, Josep</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117">
@@ -3456,24 +3456,24 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ATATAAAATT</t>
+          <t>TAAATATATT</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>0101000011</t>
+          <t>1000101011</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Jordi Llavina, Blai Bonet</t>
+          <t>Joan Valls, Biel Mesquida, Francesc Parcerisas, Màrius Sampere, Miquel Martí i Pol, Vicent Andrés Estellés</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F117" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118">
@@ -3482,24 +3482,24 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ATATTATTAT</t>
+          <t>AATATAATTT</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>0101101101</t>
+          <t>0010100111</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Jordi Llavina, Miquel Martí i Pol</t>
+          <t>Joan Valls, Josep Carner, Joan Francesc Mira, Salvador Oliva i Llinàs, Bonaventura Ubach, Carles Cardó, Miquel Lladó, Vicent Andrés Estellés, Vicent Alonso</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F118" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119">
@@ -3508,24 +3508,24 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ATAAATAAAT</t>
+          <t>AAATATAATT</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>0100010001</t>
+          <t>0001010011</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Josep Carner</t>
+          <t>Joan Valls, Josep Maria de Sagarra, Salvador Oliva i Llinàs, Carles Miralles, Maria Mercè Marçal, Màrius Sampere, Miquel Costa i Llobera, Miquel Lladó, Pere Rovira, Rosa Leveroni, Vicent Andrés Estellés</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120">
@@ -3534,24 +3534,24 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>TAATTATTAT</t>
+          <t>AAATAAATAT</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>1001101101</t>
+          <t>0001000101</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Josep Piera</t>
+          <t>Jaume Bofill, Joan Brossa, Joan Vinyoli, Arnau Barios, Carles Cardó, Llorenç Riber, Narcís Comadira, Joan Alcover</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121">
@@ -3560,24 +3560,24 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>AAATAATTAT</t>
+          <t>ATATAAAAAT</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>0001001101</t>
+          <t>0101000001</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Maria Mercè Marçal, Blai Bonet</t>
+          <t>Jaume C. Pons Alorda, Joan Fuster, Carles Camps</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
@@ -3586,21 +3586,21 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>TATAATTTAT</t>
+          <t>TATTTATAAT</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>1010011101</t>
+          <t>1011101001</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Maria Mercè Marçal, Vicent Andrés Estellés</t>
+          <t>Jaume C. Pons Alorda, Vicent Andrés Estellés</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F122" t="n">
         <v>2</v>
@@ -3612,24 +3612,24 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ATTTAATAAT</t>
+          <t>ATAAATAAAT</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>0111001001</t>
+          <t>0100010001</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Marià Manent, Miquel Costa, Màrius Sampere, Narcís Comadira, Salvador Oliva, Vicent Andrés Estellés, Albert Balasch</t>
+          <t>Josep Carner, Arnau Barios, Bonaventura Ubach, Carles Cardó, Ramir Augé, Verdaguer i Santaló, Jacint, Txema Martínez</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F123" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124">
@@ -3638,24 +3638,24 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TATAAATATT</t>
+          <t>ATTTAATAAT</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>1010001011</t>
+          <t>0111001001</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Marià Manent, Àngel Terrón</t>
+          <t>Josep Carner, Joan Brossa, Joan Francesc Mira, Joan Pons Marquès, Àngel Terrón, Josep Maria de Sagarra, Albert Balasch, Salvador Oliva i Llinàs, Biel Mesquida, Carles Cardó, David Jou, Marià Manent, Màrius Sampere, Miquel Costa i Llobera, Narcís Comadira, Pau Sais, Sebastià Alzamora, Vicent Andrés Estellés</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F124" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125">
@@ -3664,24 +3664,24 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ATATTTAAAT</t>
+          <t>TATTTAATAT</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>0101110001</t>
+          <t>1011100101</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Miquel Desclot</t>
+          <t>Josep Carner, Joan Francesc Mira, Carles Cardó</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126">
@@ -3690,24 +3690,24 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>TAATTAAATT</t>
+          <t>ATATTATTAT</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>1001100011</t>
+          <t>0101101101</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Miquel Lladó</t>
+          <t>Josep Carner, Jordi Llavina, Miquel Martí i Pol</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F126" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
@@ -3716,17 +3716,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>AATTAATTTT</t>
+          <t>AAATATATTT</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>0011001111</t>
+          <t>0001010111</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Miquel Lladó, Blai Bonet</t>
+          <t>Josep Carner, Carles Grandó</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -3742,17 +3742,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>AATATAAAAT</t>
+          <t>AATATTTAAT</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>0010100001</t>
+          <t>0010111001</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Miquel Lladó</t>
+          <t>Joan Amade</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -3768,17 +3768,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>AATATAATTT</t>
+          <t>AAAATAATAT</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>0010100111</t>
+          <t>0000100101</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Miquel Lladó, Salvador Oliva, Vicent Andrés Estellés</t>
+          <t>Joan Francesc Mira, Albert Balasch, Sebastià Alzamora</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -3794,24 +3794,24 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>AATTATAAAT</t>
+          <t>TAATATTATT</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>0011010001</t>
+          <t>1001011011</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Miquel Lladó</t>
+          <t>Joan Francesc Mira, Vicent Andrés Estellés</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131">
@@ -3820,24 +3820,24 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ATAAATATTT</t>
+          <t>AATAAATTAT</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>0100010111</t>
+          <t>0010001101</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Miquel Martí i Pol</t>
+          <t>Salvador Espriu, Josep Maria de Sagarra, Bonaventura Ubach, Arcadi Gomila, Pau Sais, Agustí Bartra</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132">
@@ -3846,24 +3846,24 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TAAATATATT</t>
+          <t>ATTTATAATT</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>1000101011</t>
+          <t>0111010011</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Miquel Martí i Pol, Màrius Sampere, Vicent Andrés Estellés</t>
+          <t>Joan Oliver, Arnau Barios, Francesc Parcerisas, Miquel Martí i Pol, Vicent Andrés Estellés</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F132" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133">
@@ -3872,17 +3872,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>AAATTATAAT</t>
+          <t>TATATAAATT</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>0001101001</t>
+          <t>1010100011</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Miquel Martí i Pol</t>
+          <t>Joan Oliver</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -3898,24 +3898,24 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ATAATTTAAT</t>
+          <t>ATTAATTATT</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>0100111001</t>
+          <t>0110011011</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Miquel Martí i Pol</t>
+          <t>Joan Oliver, Màrius Torres</t>
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135">
@@ -3924,24 +3924,24 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>AAATATTATT</t>
+          <t>ATAAAATAAT</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>0001011011</t>
+          <t>0100001001</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Miquel Martí i Pol</t>
+          <t>Joan Oliver, Salvador Oliva i Llinàs, Vicent Andrés Estellés</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="136">
@@ -3950,24 +3950,24 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>AAATATAATT</t>
+          <t>ATAATAAAAT</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>0001010011</t>
+          <t>0100100001</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Màrius Sampere</t>
+          <t>Joan Oliver, Josep Maria de Sagarra, Arnau Barios, Carles Riba, Ester Xargay, Josep Sebastià Pons, Lluís Alpera, Miquel Costa i Llobera, Pau Sais, Ramir Augé</t>
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137">
@@ -3976,24 +3976,24 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ATTTTAATTT</t>
+          <t>AATATTAAAT</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>0111100111</t>
+          <t>0010110001</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Màrius Torres</t>
+          <t>Joan Oliver, Pere Rovira, Rafael Catardi</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
@@ -4002,17 +4002,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ATTTATTATT</t>
+          <t>AATATTTATT</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>0111011011</t>
+          <t>0010111011</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Màrius Torres</t>
+          <t>Joan Oliver</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -4028,24 +4028,24 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>TAATAATTTT</t>
+          <t>ATTTAATATT</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>1001001111</t>
+          <t>0111001011</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Narcís Comadira</t>
+          <t>Joan Oliver, Miquel Costa i Llobera, Biel Mercadal</t>
         </is>
       </c>
       <c r="E139" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140">
@@ -4054,24 +4054,24 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>TAATTATATT</t>
+          <t>TATTATATTT</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>1001101011</t>
+          <t>1011010111</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Narcís Comadira</t>
+          <t>Joan Salvat-Papasseit, Arnau Barios, Miquel Costa i Llobera, Pere Suau</t>
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F140" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141">
@@ -4080,24 +4080,24 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>AATTTAATAT</t>
+          <t>ATTTTATAAT</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>0011100101</t>
+          <t>0111101001</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Narcís Comadira, Vicent Andrés Estellés, Blai Bonet</t>
+          <t>Joan Vinyoli</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -4106,24 +4106,24 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ATTTATTAAT</t>
+          <t>ATTAATATTT</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>0111011001</t>
+          <t>0110010111</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Narcís Comadira</t>
+          <t>Joan Vinyoli, Salvador Oliva i Llinàs, Maria Mercè Marçal, Magí Morera</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F142" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143">
@@ -4132,24 +4132,24 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>TAATTAATTT</t>
+          <t>ATAATAATTT</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>1001100111</t>
+          <t>0100100111</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Narcís Comadira</t>
+          <t>Joan Vinyoli, Arnau Barios, Francesc Parcerisas, Màrius Sampere, Miquel Costa i Llobera, Vicent Andrés Estellés, Magí Morera</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F143" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144">
@@ -4158,17 +4158,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>AAATAAATAT</t>
+          <t>ATATTTTAAT</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>0001000101</t>
+          <t>0101111001</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Narcís Comadira</t>
+          <t>Joan Vinyoli</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -4184,24 +4184,24 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>AATAAATTAT</t>
+          <t>AAAATATATT</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>0010001101</t>
+          <t>0000101011</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Salvador Espriu, Llorenç Moyà</t>
+          <t>Joan-Lluís Lluís</t>
         </is>
       </c>
       <c r="E145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -4220,14 +4220,14 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Salvador Oliva</t>
+          <t>Joaquim Folguera, Josep Maria de Sagarra, Salvador Oliva i Llinàs, Pere Suau, Ramon Miquel</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F146" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147">
@@ -4236,17 +4236,17 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ATAAAATAAT</t>
+          <t>ATAATTATTT</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>0100001001</t>
+          <t>0100110111</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Salvador Oliva, Vicent Andrés Estellés</t>
+          <t>Jordi Sarsanedas i Vives, Feliu Formosa</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -4262,17 +4262,17 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>TAAATTATTT</t>
+          <t>TATATATTTT</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>1000110111</t>
+          <t>1010101111</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Salvador Oliva</t>
+          <t>Josep Borrell</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -4288,24 +4288,24 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ATTAATTTTT</t>
+          <t>TATAAATATT</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>0110011111</t>
+          <t>1010001011</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Salvador Oliva</t>
+          <t>Àngel Terrón, Josep Maria de Sagarra, Salvador Oliva i Llinàs, Marià Manent, Ramir Augé, Vicent Andrés Estellés, Francesc Florit</t>
         </is>
       </c>
       <c r="E149" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F149" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150">
@@ -4314,24 +4314,24 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>AATTTTATAT</t>
+          <t>TAATAATTTT</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>0011110101</t>
+          <t>1001001111</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Vicent Andrés Estellés</t>
+          <t>Josep Lleonart, Carles Riba, Narcís Comadira</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F150" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
@@ -4340,21 +4340,21 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ATATTAATTT</t>
+          <t>TAAAATAATT</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>0101100111</t>
+          <t>1000010011</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Vicent Andrés Estellés</t>
+          <t>Josep Maria de Sagarra</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
         <v>1</v>
@@ -4366,17 +4366,17 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>TATATTTAAT</t>
+          <t>ATTAAATATT</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>1010111001</t>
+          <t>0110001011</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Vicent Andrés Estellés</t>
+          <t>Josep Maria de Sagarra</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -4392,17 +4392,17 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>AATTATTATT</t>
+          <t>ATTTATTTAT</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>0011011011</t>
+          <t>0111011101</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Vicent Andrés Estellés</t>
+          <t>Ponç Pons</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -4418,24 +4418,24 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>AATTTATAAT</t>
+          <t>TATAAATTAT</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>0011101001</t>
+          <t>1010001101</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Vicent Andrés Estellés</t>
+          <t>Andreu Gomila, Josep Vallverdú, Joan Teixidor</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F154" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155">
@@ -4444,17 +4444,17 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>TATTATTATT</t>
+          <t>TAAATTATTT</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>1011011011</t>
+          <t>1000110111</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Vicent Andrés Estellés</t>
+          <t>Salvador Oliva i Llinàs</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -4470,17 +4470,17 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TATTTATAAT</t>
+          <t>ATTAATTTTT</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>1011101001</t>
+          <t>0110011111</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Vicent Andrés Estellés</t>
+          <t>Salvador Oliva i Llinàs</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -4496,24 +4496,24 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ATATTTAATT</t>
+          <t>AAATTAATAT</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>0101110011</t>
+          <t>0001100101</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Vicent Andrés Estellés</t>
+          <t>Biel Mesquida, Carles Riba</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -4522,17 +4522,17 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>TAATATTATT</t>
+          <t>TAAATATTAT</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>1001011011</t>
+          <t>1000101101</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Vicent Andrés Estellés</t>
+          <t>Bonaventura Ubach</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -4548,24 +4548,24 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>TAAATTATAT</t>
+          <t>TATTATAAAT</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>1000110101</t>
+          <t>1011010001</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Vicent Andrés Estellés, Guillem Cabrer</t>
+          <t>Enric Sòria</t>
         </is>
       </c>
       <c r="E159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -4574,24 +4574,24 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>TATTATTAAT</t>
+          <t>ATATTTAATT</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>1011011001</t>
+          <t>0101110011</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Bernat Cifre</t>
+          <t>Josep Romeu i Figueras, Vicent Andrés Estellés</t>
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -4600,24 +4600,24 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>AAATATAAAT</t>
+          <t>AAAATATAAT</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>0001010001</t>
+          <t>0000101001</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Blai Bonet</t>
+          <t>Josep Romeu i Figueras, Pere Suau</t>
         </is>
       </c>
       <c r="E161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -4626,17 +4626,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>TATTATATTT</t>
+          <t>ATAAAATATT</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>1011010111</t>
+          <t>0100001011</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Joan Salvat-Papasseit</t>
+          <t>David Jou</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -4652,17 +4652,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AAATTAATAT</t>
+          <t>ATATTAAATT</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>0001100101</t>
+          <t>0101100011</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Albert Balasch</t>
+          <t>Feliu Formosa</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -4678,24 +4678,24 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ATAATTTTAT</t>
+          <t>ATAATTTAAT</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>0100111101</t>
+          <t>0100111001</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Pere Gimferrer</t>
+          <t>Josep Vallverdú, Miquel Martí i Pol</t>
         </is>
       </c>
       <c r="E164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -4704,24 +4704,24 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>TATTTAATTT</t>
+          <t>AAATTATAAT</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>1011100111</t>
+          <t>0001101001</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Pere Gimferrer</t>
+          <t>Josep Vallverdú, Miquel Martí i Pol</t>
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -4730,17 +4730,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>AATTTATATT</t>
+          <t>TAAATTTAAT</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>0011101011</t>
+          <t>1000111001</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Manuel Forcano</t>
+          <t>Francesc Parcerisas</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -4756,21 +4756,21 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>AAATATTAAT</t>
+          <t>ATATAAATTT</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>0001011001</t>
+          <t>0101000111</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Manuel Forcano</t>
+          <t>Francesc Parcerisas</t>
         </is>
       </c>
       <c r="E167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F167" t="n">
         <v>1</v>
@@ -4782,23 +4782,803 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
+          <t>AATAAAATAT</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>0010000101</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Francesc Parcerisas, Llorenç Moyà, Gustau Juan</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>3</v>
+      </c>
+      <c r="F168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>TAATAAATTT</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>1001000111</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Josep Sebastià Pons, Rafael Catardi, Verdaguer i Santaló, Jacint</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>3</v>
+      </c>
+      <c r="F169" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>TAATTATATT</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>1001101011</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Lluís Alpera, Narcís Comadira</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>2</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>AATTTATATT</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>0011101011</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Manuel Forcano</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>1</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>AAATATTAAT</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>0001011001</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Manuel Forcano, Pere Rovira</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>3</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>TATAATTTAT</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>1010011101</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Maria Mercè Marçal, Vicent Andrés Estellés</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>3</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ATTTTAATTT</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>0111100111</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Màrius Torres</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>1</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ATTTATTATT</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>0111011011</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Màrius Torres</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ATATTTAAAT</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>0101110001</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Miquel Creus</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>1</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>TAATTAAATT</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>1001100011</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Miquel Lladó</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>1</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>AATATAAAAT</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>0010100001</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Miquel Lladó, Sebastià Alzamora</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>2</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>AATTATAAAT</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>0011010001</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Miquel Lladó</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>1</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>AAATATTATT</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>0001011011</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Miquel Martí i Pol, Vicent Andrés Estellés</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>2</v>
+      </c>
+      <c r="F180" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
           <t>TATATTAATT</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>1010110011</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Miquel-Àngel Llauger</t>
-        </is>
-      </c>
-      <c r="E168" t="n">
-        <v>1</v>
-      </c>
-      <c r="F168" t="n">
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Miquel Àngel Llauger, Oriol Izquierdo, Gabriel de la S.T. Sampol</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>3</v>
+      </c>
+      <c r="F181" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ATTTATTAAT</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>0111011001</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Narcís Comadira</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>1</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>TAATTAATTT</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>1001100111</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Narcís Comadira, Pau Sais</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>2</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ATTTTATTTT</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>0111101111</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Oriol Izquierdo</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>1</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>AAATAATTTT</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>0001001111</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Pau Sais</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>ATAATTTTAT</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>0100111101</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Pere Gimferrer</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>1</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>TATTTAATTT</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>1011100111</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Pere Gimferrer</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>1</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>ATAAAAATAT</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>0100000101</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Perejaume</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>1</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>TATATTAAAT</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>1010110001</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Rafael Catardi</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>ATTTATAAAT</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>0111010001</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Ramon Miquel</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>AATTTTATAT</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>0011110101</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Vicent Andrés Estellés</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>1</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>ATATTAATTT</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>0101100111</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Vicent Andrés Estellés</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>2</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>TATATTTAAT</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>1010111001</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Vicent Andrés Estellés</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>1</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>TATTATTATT</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>1011011011</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Vicent Andrés Estellés</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>1</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>AATTATTAAT</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>0011011001</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Damià Rotger</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>1</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ATATTTTTTT</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>0101111111</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Joan Teixidor</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>1</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>TAATAAAATT</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>1001000011</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Joan Teixidor</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>1</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>TAATATTTAT</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>1001011101</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Agustí Bartra</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>1</v>
+      </c>
+      <c r="F198" t="n">
         <v>1</v>
       </c>
     </row>
